--- a/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.61820821451086</v>
+        <v>19.61820821451096</v>
       </c>
       <c r="C2">
-        <v>13.20730381063987</v>
+        <v>13.20730381063975</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.20564151704345</v>
+        <v>13.20564151704346</v>
       </c>
       <c r="F2">
-        <v>63.52681844307148</v>
+        <v>63.52681844307146</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>36.45177425426353</v>
       </c>
       <c r="J2">
-        <v>17.19878724544612</v>
+        <v>17.19878724544616</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.67455726900659</v>
+        <v>11.67455726900669</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.12600584999529</v>
+        <v>18.12600584999539</v>
       </c>
       <c r="C3">
-        <v>12.19199834293094</v>
+        <v>12.19199834293084</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.28534355818728</v>
+        <v>12.28534355818726</v>
       </c>
       <c r="F3">
-        <v>58.99704267094098</v>
+        <v>58.99704267094077</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.06645626677599</v>
+        <v>34.06645626677583</v>
       </c>
       <c r="J3">
-        <v>15.9032466324745</v>
+        <v>15.90324663247454</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.87322128626999</v>
+        <v>10.8732212862701</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.17375242669938</v>
+        <v>17.17375242669945</v>
       </c>
       <c r="C4">
-        <v>11.54582010494563</v>
+        <v>11.54582010494592</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.71024283345586</v>
+        <v>11.71024283345587</v>
       </c>
       <c r="F4">
-        <v>56.13172120913943</v>
+        <v>56.13172120913953</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>32.56809950041944</v>
       </c>
       <c r="J4">
-        <v>15.07615832419231</v>
+        <v>15.07615832419246</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.37410548535422</v>
+        <v>10.37410548535437</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.77624656701037</v>
+        <v>16.77624656701034</v>
       </c>
       <c r="C5">
-        <v>11.27642075908959</v>
+        <v>11.27642075908967</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.47291979839183</v>
+        <v>11.47291979839185</v>
       </c>
       <c r="F5">
-        <v>54.94177153371788</v>
+        <v>54.94177153371795</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.94835750894545</v>
+        <v>31.94835750894552</v>
       </c>
       <c r="J5">
         <v>14.7307735393523</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.16847235144915</v>
+        <v>10.16847235144918</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.70965959809574</v>
+        <v>16.7096595980956</v>
       </c>
       <c r="C6">
-        <v>11.2313108072157</v>
+        <v>11.23131080721575</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.4333220845922</v>
+        <v>11.43332208459208</v>
       </c>
       <c r="F6">
-        <v>54.74280552188016</v>
+        <v>54.74280552187987</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.84488162218171</v>
+        <v>31.84488162218146</v>
       </c>
       <c r="J6">
-        <v>14.67290849119358</v>
+        <v>14.67290849119354</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.13417993882965</v>
+        <v>10.13417993882958</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.16843028309597</v>
+        <v>17.16843028309604</v>
       </c>
       <c r="C7">
-        <v>11.54221192472992</v>
+        <v>11.54221192473008</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.70705473970762</v>
+        <v>11.70705473970782</v>
       </c>
       <c r="F7">
-        <v>56.11576478466533</v>
+        <v>56.1157647846659</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.55977922027238</v>
+        <v>32.5597792202729</v>
       </c>
       <c r="J7">
-        <v>15.07153459057616</v>
+        <v>15.07153459057618</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.37134186112284</v>
+        <v>10.37134186112274</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.11091924313389</v>
+        <v>19.11091924313387</v>
       </c>
       <c r="C8">
-        <v>12.86172895386665</v>
+        <v>12.86172895386666</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.89011157104415</v>
+        <v>12.89011157104406</v>
       </c>
       <c r="F8">
-        <v>61.98157617612586</v>
+        <v>61.98157617612581</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.63586325541087</v>
+        <v>35.63586325541088</v>
       </c>
       <c r="J8">
-        <v>16.75839843867267</v>
+        <v>16.7583984386727</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.39942923897097</v>
+        <v>11.39942923897088</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.65575896857888</v>
+        <v>22.65575896857881</v>
       </c>
       <c r="C9">
-        <v>15.28721368162994</v>
+        <v>15.28721368162992</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.15587336404027</v>
+        <v>15.15587336404011</v>
       </c>
       <c r="F9">
-        <v>73.09487311316634</v>
+        <v>73.09487311316602</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.44200730908816</v>
+        <v>41.44200730908796</v>
       </c>
       <c r="J9">
-        <v>19.83603198427422</v>
+        <v>19.83603198427414</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.3847079479861</v>
+        <v>13.38470794798605</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.13655411013861</v>
+        <v>25.1365541101386</v>
       </c>
       <c r="C10">
-        <v>17.00247573726325</v>
+        <v>17.00247573726318</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.83426418151809</v>
+        <v>16.83426418151778</v>
       </c>
       <c r="F10">
-        <v>81.07725340063517</v>
+        <v>81.0772534006345</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.65132847189107</v>
+        <v>45.65132847189042</v>
       </c>
       <c r="J10">
-        <v>21.9919651040592</v>
+        <v>21.99196510405918</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.87030581927168</v>
+        <v>14.87030581927167</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.24963791215652</v>
+        <v>26.24963791215647</v>
       </c>
       <c r="C11">
-        <v>17.77793416520299</v>
+        <v>17.77793416520288</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.61588052330344</v>
+        <v>17.61588052330357</v>
       </c>
       <c r="F11">
-        <v>84.69840522199605</v>
+        <v>84.6984052219961</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47.58103780768568</v>
+        <v>47.58103780768587</v>
       </c>
       <c r="J11">
         <v>22.96038885709727</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.56643564985761</v>
+        <v>15.56643564985762</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.67018558664904</v>
+        <v>26.67018558664932</v>
       </c>
       <c r="C12">
-        <v>18.07196992103377</v>
+        <v>18.07196992103386</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.916246225864</v>
+        <v>17.91624622586443</v>
       </c>
       <c r="F12">
-        <v>86.07363412957713</v>
+        <v>86.07363412957808</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.31711709939473</v>
+        <v>48.31711709939554</v>
       </c>
       <c r="J12">
-        <v>23.32650385001963</v>
+        <v>23.3265038500198</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.83464382057327</v>
+        <v>15.83464382057337</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.57963141991821</v>
+        <v>26.57963141991799</v>
       </c>
       <c r="C13">
-        <v>18.00860630317095</v>
+        <v>18.00860630317091</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.85132735432653</v>
+        <v>17.85132735432623</v>
       </c>
       <c r="F13">
-        <v>85.77717227998801</v>
+        <v>85.77717227998743</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.15828936372649</v>
+        <v>48.15828936372595</v>
       </c>
       <c r="J13">
-        <v>23.2476592651934</v>
+        <v>23.24765926519327</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.77664340245246</v>
+        <v>15.77664340245247</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.28424718059991</v>
+        <v>26.28424718060008</v>
       </c>
       <c r="C14">
-        <v>17.80210962574506</v>
+        <v>17.80210962574515</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.64049162460705</v>
+        <v>17.64049162460735</v>
       </c>
       <c r="F14">
-        <v>84.81142930259927</v>
+        <v>84.8114293026</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>47.64146638808842</v>
+        <v>47.64146638808901</v>
       </c>
       <c r="J14">
-        <v>22.99051365767946</v>
+        <v>22.99051365767965</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>15.58839763765924</v>
+        <v>15.58839763765935</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.10323535711153</v>
+        <v>26.1032353571112</v>
       </c>
       <c r="C15">
-        <v>17.67571204824398</v>
+        <v>17.67571204824389</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.51198235793028</v>
+        <v>17.51198235792982</v>
       </c>
       <c r="F15">
-        <v>84.22059130152195</v>
+        <v>84.22059130152094</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.32570550507459</v>
+        <v>47.3257055050737</v>
       </c>
       <c r="J15">
-        <v>22.83296573237516</v>
+        <v>22.83296573237491</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>15.47374923647162</v>
+        <v>15.47374923647144</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.06360141076308</v>
+        <v>25.06360141076293</v>
       </c>
       <c r="C16">
-        <v>16.95178636098733</v>
+        <v>16.95178636098734</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.78368783599263</v>
+        <v>16.7836878359922</v>
       </c>
       <c r="F16">
-        <v>80.84082765170744</v>
+        <v>80.84082765170669</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.52576800510676</v>
+        <v>45.525768005106</v>
       </c>
       <c r="J16">
-        <v>21.92852104926548</v>
+        <v>21.9285210492654</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.82535309739412</v>
+        <v>14.82535309739415</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.42266424719541</v>
+        <v>24.4226642471953</v>
       </c>
       <c r="C17">
-        <v>16.50712655275758</v>
+        <v>16.50712655275796</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.34264202502317</v>
+        <v>16.342642025023</v>
       </c>
       <c r="F17">
-        <v>78.76825310964976</v>
+        <v>78.76825310964924</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.42735396662098</v>
+        <v>44.42735396662055</v>
       </c>
       <c r="J17">
-        <v>21.3712540681419</v>
+        <v>21.37125406814189</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.4338315714611</v>
+        <v>14.43383157146119</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.05246812505828</v>
+        <v>24.05246812505837</v>
       </c>
       <c r="C18">
-        <v>16.25083712829683</v>
+        <v>16.25083712829692</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.09053541635923</v>
+        <v>16.09053541635954</v>
       </c>
       <c r="F18">
-        <v>77.5748126573767</v>
+        <v>77.57481265737739</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.79673484786622</v>
+        <v>43.79673484786682</v>
       </c>
       <c r="J18">
-        <v>21.04948423421194</v>
+        <v>21.04948423421203</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.21042729703873</v>
+        <v>14.21042729703874</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.92682725419831</v>
+        <v>23.92682725419841</v>
       </c>
       <c r="C19">
-        <v>16.16394209786277</v>
+        <v>16.16394209786256</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.00540070013979</v>
+        <v>16.00540070013977</v>
       </c>
       <c r="F19">
-        <v>77.17036198921355</v>
+        <v>77.17036198921348</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.58333513599288</v>
+        <v>43.58333513599285</v>
       </c>
       <c r="J19">
-        <v>20.94029407629073</v>
+        <v>20.9402940762907</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.13505036528712</v>
+        <v>14.13505036528717</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.49104500043963</v>
+        <v>24.49104500043977</v>
       </c>
       <c r="C20">
-        <v>16.55450960017349</v>
+        <v>16.55450960017328</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.38941832895908</v>
+        <v>16.38941832895938</v>
       </c>
       <c r="F20">
-        <v>78.9889877103823</v>
+        <v>78.98898771038293</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.54414193126781</v>
+        <v>44.54414193126836</v>
       </c>
       <c r="J20">
-        <v>21.43069743686127</v>
+        <v>21.43069743686133</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.47531403092509</v>
+        <v>14.47531403092506</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.37102266787791</v>
+        <v>26.37102266787769</v>
       </c>
       <c r="C21">
-        <v>17.86274206661842</v>
+        <v>17.86274206661823</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.70228308305538</v>
+        <v>17.70228308305529</v>
       </c>
       <c r="F21">
-        <v>85.09493181819123</v>
+        <v>85.09493181819067</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47.79309415825082</v>
+        <v>47.79309415825033</v>
       </c>
       <c r="J21">
-        <v>23.06604908308887</v>
+        <v>23.0660490830887</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>15.64354917493923</v>
+        <v>15.64354917493919</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.59501817900286</v>
+        <v>27.59501817900296</v>
       </c>
       <c r="C22">
-        <v>18.72075085422696</v>
+        <v>18.72075085422691</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.5871741494776</v>
+        <v>18.58717414947768</v>
       </c>
       <c r="F22">
-        <v>89.11258506519619</v>
+        <v>89.11258506519664</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>49.94992900834006</v>
+        <v>49.94992900834038</v>
       </c>
       <c r="J22">
-        <v>24.13211769677588</v>
+        <v>24.13211769677592</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.43506997106401</v>
+        <v>16.43506997106408</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.94165696149112</v>
+        <v>26.94165696149111</v>
       </c>
       <c r="C23">
-        <v>18.26209636242933</v>
+        <v>18.26209636242953</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.11167903690937</v>
+        <v>18.11167903690982</v>
       </c>
       <c r="F23">
-        <v>86.96354044750113</v>
+        <v>86.96354044750201</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>48.79437064073169</v>
+        <v>48.79437064073245</v>
       </c>
       <c r="J23">
-        <v>23.5629089222703</v>
+        <v>23.56290892227041</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.00935374948867</v>
+        <v>16.00935374948871</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.46013548751749</v>
+        <v>24.46013548751756</v>
       </c>
       <c r="C24">
-        <v>16.53308982172608</v>
+        <v>16.5330898217263</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.3682663512133</v>
+        <v>16.36826635121316</v>
       </c>
       <c r="F24">
-        <v>78.88919986884811</v>
+        <v>78.88919986884791</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.49133959766323</v>
+        <v>44.49133959766304</v>
       </c>
       <c r="J24">
-        <v>21.40382750157003</v>
+        <v>21.40382750157006</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.45655467634851</v>
+        <v>14.45655467634853</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.7216837548677</v>
+        <v>21.72168375486751</v>
       </c>
       <c r="C25">
-        <v>14.64548850880228</v>
+        <v>14.64548850880236</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.54461252720741</v>
+        <v>14.54461252720731</v>
       </c>
       <c r="F25">
-        <v>70.11786110005174</v>
+        <v>70.11786110005134</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.88848484464037</v>
+        <v>39.88848484464012</v>
       </c>
       <c r="J25">
-        <v>19.02488934064739</v>
+        <v>19.02488934064733</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.84685876944822</v>
+        <v>12.84685876944817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.61820821451096</v>
+        <v>19.61820821451086</v>
       </c>
       <c r="C2">
-        <v>13.20730381063975</v>
+        <v>13.20730381063987</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.20564151704346</v>
+        <v>13.20564151704345</v>
       </c>
       <c r="F2">
-        <v>63.52681844307146</v>
+        <v>63.52681844307148</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>36.45177425426353</v>
       </c>
       <c r="J2">
-        <v>17.19878724544616</v>
+        <v>17.19878724544612</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.67455726900669</v>
+        <v>11.67455726900659</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.12600584999539</v>
+        <v>18.12600584999529</v>
       </c>
       <c r="C3">
-        <v>12.19199834293084</v>
+        <v>12.19199834293094</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.28534355818726</v>
+        <v>12.28534355818728</v>
       </c>
       <c r="F3">
-        <v>58.99704267094077</v>
+        <v>58.99704267094098</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.06645626677583</v>
+        <v>34.06645626677599</v>
       </c>
       <c r="J3">
-        <v>15.90324663247454</v>
+        <v>15.9032466324745</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.8732212862701</v>
+        <v>10.87322128626999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.17375242669945</v>
+        <v>17.17375242669938</v>
       </c>
       <c r="C4">
-        <v>11.54582010494592</v>
+        <v>11.54582010494563</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.71024283345587</v>
+        <v>11.71024283345586</v>
       </c>
       <c r="F4">
-        <v>56.13172120913953</v>
+        <v>56.13172120913943</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>32.56809950041944</v>
       </c>
       <c r="J4">
-        <v>15.07615832419246</v>
+        <v>15.07615832419231</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.37410548535437</v>
+        <v>10.37410548535422</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.77624656701034</v>
+        <v>16.77624656701037</v>
       </c>
       <c r="C5">
-        <v>11.27642075908967</v>
+        <v>11.27642075908959</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.47291979839185</v>
+        <v>11.47291979839183</v>
       </c>
       <c r="F5">
-        <v>54.94177153371795</v>
+        <v>54.94177153371788</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.94835750894552</v>
+        <v>31.94835750894545</v>
       </c>
       <c r="J5">
         <v>14.7307735393523</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.16847235144918</v>
+        <v>10.16847235144915</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.7096595980956</v>
+        <v>16.70965959809574</v>
       </c>
       <c r="C6">
-        <v>11.23131080721575</v>
+        <v>11.2313108072157</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.43332208459208</v>
+        <v>11.4333220845922</v>
       </c>
       <c r="F6">
-        <v>54.74280552187987</v>
+        <v>54.74280552188016</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.84488162218146</v>
+        <v>31.84488162218171</v>
       </c>
       <c r="J6">
-        <v>14.67290849119354</v>
+        <v>14.67290849119358</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.13417993882958</v>
+        <v>10.13417993882965</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.16843028309604</v>
+        <v>17.16843028309597</v>
       </c>
       <c r="C7">
-        <v>11.54221192473008</v>
+        <v>11.54221192472992</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.70705473970782</v>
+        <v>11.70705473970762</v>
       </c>
       <c r="F7">
-        <v>56.1157647846659</v>
+        <v>56.11576478466533</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.5597792202729</v>
+        <v>32.55977922027238</v>
       </c>
       <c r="J7">
-        <v>15.07153459057618</v>
+        <v>15.07153459057616</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.37134186112274</v>
+        <v>10.37134186112284</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.11091924313387</v>
+        <v>19.11091924313389</v>
       </c>
       <c r="C8">
-        <v>12.86172895386666</v>
+        <v>12.86172895386665</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.89011157104406</v>
+        <v>12.89011157104415</v>
       </c>
       <c r="F8">
-        <v>61.98157617612581</v>
+        <v>61.98157617612586</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.63586325541088</v>
+        <v>35.63586325541087</v>
       </c>
       <c r="J8">
-        <v>16.7583984386727</v>
+        <v>16.75839843867267</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.39942923897088</v>
+        <v>11.39942923897097</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.65575896857881</v>
+        <v>22.65575896857888</v>
       </c>
       <c r="C9">
-        <v>15.28721368162992</v>
+        <v>15.28721368162994</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.15587336404011</v>
+        <v>15.15587336404027</v>
       </c>
       <c r="F9">
-        <v>73.09487311316602</v>
+        <v>73.09487311316634</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.44200730908796</v>
+        <v>41.44200730908816</v>
       </c>
       <c r="J9">
-        <v>19.83603198427414</v>
+        <v>19.83603198427422</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.38470794798605</v>
+        <v>13.3847079479861</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.1365541101386</v>
+        <v>25.13655411013861</v>
       </c>
       <c r="C10">
-        <v>17.00247573726318</v>
+        <v>17.00247573726325</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.83426418151778</v>
+        <v>16.83426418151809</v>
       </c>
       <c r="F10">
-        <v>81.0772534006345</v>
+        <v>81.07725340063517</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.65132847189042</v>
+        <v>45.65132847189107</v>
       </c>
       <c r="J10">
-        <v>21.99196510405918</v>
+        <v>21.9919651040592</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.87030581927167</v>
+        <v>14.87030581927168</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.24963791215647</v>
+        <v>26.24963791215652</v>
       </c>
       <c r="C11">
-        <v>17.77793416520288</v>
+        <v>17.77793416520299</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.61588052330357</v>
+        <v>17.61588052330344</v>
       </c>
       <c r="F11">
-        <v>84.6984052219961</v>
+        <v>84.69840522199605</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47.58103780768587</v>
+        <v>47.58103780768568</v>
       </c>
       <c r="J11">
         <v>22.96038885709727</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.56643564985762</v>
+        <v>15.56643564985761</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.67018558664932</v>
+        <v>26.67018558664904</v>
       </c>
       <c r="C12">
-        <v>18.07196992103386</v>
+        <v>18.07196992103377</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.91624622586443</v>
+        <v>17.916246225864</v>
       </c>
       <c r="F12">
-        <v>86.07363412957808</v>
+        <v>86.07363412957713</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.31711709939554</v>
+        <v>48.31711709939473</v>
       </c>
       <c r="J12">
-        <v>23.3265038500198</v>
+        <v>23.32650385001963</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.83464382057337</v>
+        <v>15.83464382057327</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.57963141991799</v>
+        <v>26.57963141991821</v>
       </c>
       <c r="C13">
-        <v>18.00860630317091</v>
+        <v>18.00860630317095</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.85132735432623</v>
+        <v>17.85132735432653</v>
       </c>
       <c r="F13">
-        <v>85.77717227998743</v>
+        <v>85.77717227998801</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.15828936372595</v>
+        <v>48.15828936372649</v>
       </c>
       <c r="J13">
-        <v>23.24765926519327</v>
+        <v>23.2476592651934</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.77664340245247</v>
+        <v>15.77664340245246</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.28424718060008</v>
+        <v>26.28424718059991</v>
       </c>
       <c r="C14">
-        <v>17.80210962574515</v>
+        <v>17.80210962574506</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.64049162460735</v>
+        <v>17.64049162460705</v>
       </c>
       <c r="F14">
-        <v>84.8114293026</v>
+        <v>84.81142930259927</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>47.64146638808901</v>
+        <v>47.64146638808842</v>
       </c>
       <c r="J14">
-        <v>22.99051365767965</v>
+        <v>22.99051365767946</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>15.58839763765935</v>
+        <v>15.58839763765924</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.1032353571112</v>
+        <v>26.10323535711153</v>
       </c>
       <c r="C15">
-        <v>17.67571204824389</v>
+        <v>17.67571204824398</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.51198235792982</v>
+        <v>17.51198235793028</v>
       </c>
       <c r="F15">
-        <v>84.22059130152094</v>
+        <v>84.22059130152195</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.3257055050737</v>
+        <v>47.32570550507459</v>
       </c>
       <c r="J15">
-        <v>22.83296573237491</v>
+        <v>22.83296573237516</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>15.47374923647144</v>
+        <v>15.47374923647162</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.06360141076293</v>
+        <v>25.06360141076308</v>
       </c>
       <c r="C16">
-        <v>16.95178636098734</v>
+        <v>16.95178636098733</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.7836878359922</v>
+        <v>16.78368783599263</v>
       </c>
       <c r="F16">
-        <v>80.84082765170669</v>
+        <v>80.84082765170744</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.525768005106</v>
+        <v>45.52576800510676</v>
       </c>
       <c r="J16">
-        <v>21.9285210492654</v>
+        <v>21.92852104926548</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.82535309739415</v>
+        <v>14.82535309739412</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.4226642471953</v>
+        <v>24.42266424719541</v>
       </c>
       <c r="C17">
-        <v>16.50712655275796</v>
+        <v>16.50712655275758</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.342642025023</v>
+        <v>16.34264202502317</v>
       </c>
       <c r="F17">
-        <v>78.76825310964924</v>
+        <v>78.76825310964976</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.42735396662055</v>
+        <v>44.42735396662098</v>
       </c>
       <c r="J17">
-        <v>21.37125406814189</v>
+        <v>21.3712540681419</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.43383157146119</v>
+        <v>14.4338315714611</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.05246812505837</v>
+        <v>24.05246812505828</v>
       </c>
       <c r="C18">
-        <v>16.25083712829692</v>
+        <v>16.25083712829683</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.09053541635954</v>
+        <v>16.09053541635923</v>
       </c>
       <c r="F18">
-        <v>77.57481265737739</v>
+        <v>77.5748126573767</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.79673484786682</v>
+        <v>43.79673484786622</v>
       </c>
       <c r="J18">
-        <v>21.04948423421203</v>
+        <v>21.04948423421194</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.21042729703874</v>
+        <v>14.21042729703873</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.92682725419841</v>
+        <v>23.92682725419831</v>
       </c>
       <c r="C19">
-        <v>16.16394209786256</v>
+        <v>16.16394209786277</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.00540070013977</v>
+        <v>16.00540070013979</v>
       </c>
       <c r="F19">
-        <v>77.17036198921348</v>
+        <v>77.17036198921355</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.58333513599285</v>
+        <v>43.58333513599288</v>
       </c>
       <c r="J19">
-        <v>20.9402940762907</v>
+        <v>20.94029407629073</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.13505036528717</v>
+        <v>14.13505036528712</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.49104500043977</v>
+        <v>24.49104500043963</v>
       </c>
       <c r="C20">
-        <v>16.55450960017328</v>
+        <v>16.55450960017349</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.38941832895938</v>
+        <v>16.38941832895908</v>
       </c>
       <c r="F20">
-        <v>78.98898771038293</v>
+        <v>78.9889877103823</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.54414193126836</v>
+        <v>44.54414193126781</v>
       </c>
       <c r="J20">
-        <v>21.43069743686133</v>
+        <v>21.43069743686127</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.47531403092506</v>
+        <v>14.47531403092509</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.37102266787769</v>
+        <v>26.37102266787791</v>
       </c>
       <c r="C21">
-        <v>17.86274206661823</v>
+        <v>17.86274206661842</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.70228308305529</v>
+        <v>17.70228308305538</v>
       </c>
       <c r="F21">
-        <v>85.09493181819067</v>
+        <v>85.09493181819123</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47.79309415825033</v>
+        <v>47.79309415825082</v>
       </c>
       <c r="J21">
-        <v>23.0660490830887</v>
+        <v>23.06604908308887</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>15.64354917493919</v>
+        <v>15.64354917493923</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.59501817900296</v>
+        <v>27.59501817900286</v>
       </c>
       <c r="C22">
-        <v>18.72075085422691</v>
+        <v>18.72075085422696</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.58717414947768</v>
+        <v>18.5871741494776</v>
       </c>
       <c r="F22">
-        <v>89.11258506519664</v>
+        <v>89.11258506519619</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>49.94992900834038</v>
+        <v>49.94992900834006</v>
       </c>
       <c r="J22">
-        <v>24.13211769677592</v>
+        <v>24.13211769677588</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.43506997106408</v>
+        <v>16.43506997106401</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.94165696149111</v>
+        <v>26.94165696149112</v>
       </c>
       <c r="C23">
-        <v>18.26209636242953</v>
+        <v>18.26209636242933</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.11167903690982</v>
+        <v>18.11167903690937</v>
       </c>
       <c r="F23">
-        <v>86.96354044750201</v>
+        <v>86.96354044750113</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>48.79437064073245</v>
+        <v>48.79437064073169</v>
       </c>
       <c r="J23">
-        <v>23.56290892227041</v>
+        <v>23.5629089222703</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.00935374948871</v>
+        <v>16.00935374948867</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.46013548751756</v>
+        <v>24.46013548751749</v>
       </c>
       <c r="C24">
-        <v>16.5330898217263</v>
+        <v>16.53308982172608</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.36826635121316</v>
+        <v>16.3682663512133</v>
       </c>
       <c r="F24">
-        <v>78.88919986884791</v>
+        <v>78.88919986884811</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.49133959766304</v>
+        <v>44.49133959766323</v>
       </c>
       <c r="J24">
-        <v>21.40382750157006</v>
+        <v>21.40382750157003</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.45655467634853</v>
+        <v>14.45655467634851</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.72168375486751</v>
+        <v>21.7216837548677</v>
       </c>
       <c r="C25">
-        <v>14.64548850880236</v>
+        <v>14.64548850880228</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.54461252720731</v>
+        <v>14.54461252720741</v>
       </c>
       <c r="F25">
-        <v>70.11786110005134</v>
+        <v>70.11786110005174</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.88848484464012</v>
+        <v>39.88848484464037</v>
       </c>
       <c r="J25">
-        <v>19.02488934064733</v>
+        <v>19.02488934064739</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.84685876944817</v>
+        <v>12.84685876944822</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.61820821451086</v>
+        <v>19.47737498151608</v>
       </c>
       <c r="C2">
-        <v>13.20730381063987</v>
+        <v>13.03070736866669</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.20564151704345</v>
+        <v>13.39743286964815</v>
       </c>
       <c r="F2">
-        <v>63.52681844307148</v>
+        <v>63.49985270860657</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.075123471186112</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.45177425426353</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>17.19878724544612</v>
+        <v>36.50881598362225</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.03109046871984</v>
       </c>
       <c r="L2">
-        <v>11.67455726900659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11.59387744036149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.12600584999529</v>
+        <v>17.99700897966525</v>
       </c>
       <c r="C3">
-        <v>12.19199834293094</v>
+        <v>12.02291270469152</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.28534355818728</v>
+        <v>12.4843102495476</v>
       </c>
       <c r="F3">
-        <v>58.99704267094098</v>
+        <v>58.98726949866047</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.090497240696744</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.06645626677599</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>15.9032466324745</v>
+        <v>34.13826237276351</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.74296420729292</v>
       </c>
       <c r="L3">
-        <v>10.87322128626999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>10.79476437557473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.17375242669938</v>
+        <v>17.05259857160791</v>
       </c>
       <c r="C4">
-        <v>11.54582010494563</v>
+        <v>11.38152271484353</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.71024283345586</v>
+        <v>11.91399490519146</v>
       </c>
       <c r="F4">
-        <v>56.13172120913943</v>
+        <v>56.13294339438602</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.100006689318141</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.56809950041944</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>15.07615832419231</v>
+        <v>32.64944359927992</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.92056135048466</v>
       </c>
       <c r="L4">
-        <v>10.37410548535422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>10.29687562657246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.77624656701037</v>
+        <v>16.65845325846297</v>
       </c>
       <c r="C5">
-        <v>11.27642075908959</v>
+        <v>11.11412769070692</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.47291979839183</v>
+        <v>11.67872917609598</v>
       </c>
       <c r="F5">
-        <v>54.94177153371788</v>
+        <v>54.94761660216911</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.103907695947433</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.94835750894545</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>14.7307735393523</v>
+        <v>32.03372757828224</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.57712755557536</v>
       </c>
       <c r="L5">
-        <v>10.16847235144915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>10.091713467031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.70965959809574</v>
+        <v>16.59243485372726</v>
       </c>
       <c r="C6">
-        <v>11.2313108072157</v>
+        <v>11.06935400839642</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.4333220845922</v>
+        <v>11.63947988566732</v>
       </c>
       <c r="F6">
-        <v>54.74280552188016</v>
+        <v>54.74942769752752</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.104557235952636</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.84488162218171</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>14.67290849119358</v>
+        <v>31.930929159603</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.51958921094687</v>
       </c>
       <c r="L6">
-        <v>10.13417993882965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>10.05749764146007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.16843028309597</v>
+        <v>17.04732105616618</v>
       </c>
       <c r="C7">
-        <v>11.54221192472992</v>
+        <v>11.3779413394998</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.70705473970762</v>
+        <v>11.91083410772633</v>
       </c>
       <c r="F7">
-        <v>56.11576478466533</v>
+        <v>56.11704869946548</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.100059184957734</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.55977922027238</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>15.07153459057616</v>
+        <v>32.6411770260267</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.91596374964702</v>
       </c>
       <c r="L7">
-        <v>10.37134186112284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>10.29411846535204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.11091924313389</v>
+        <v>18.97405916513152</v>
       </c>
       <c r="C8">
-        <v>12.86172895386665</v>
+        <v>12.68769095220643</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.89011157104415</v>
+        <v>13.08430546548532</v>
       </c>
       <c r="F8">
-        <v>61.98157617612586</v>
+        <v>61.96046721835368</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.08041517751316</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.63586325541087</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>16.75839843867267</v>
+        <v>35.6979106303612</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.59323567754022</v>
       </c>
       <c r="L8">
-        <v>11.39942923897097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>11.31954833416326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.65575896857888</v>
+        <v>22.49174477989372</v>
       </c>
       <c r="C9">
-        <v>15.28721368162994</v>
+        <v>15.09499188120818</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.15587336404027</v>
+        <v>15.3336999237322</v>
       </c>
       <c r="F9">
-        <v>73.09487311316634</v>
+        <v>73.01267359688462</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.042003024122809</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.44200730908816</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>19.83603198427422</v>
+        <v>41.46878406496126</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.65269215702342</v>
       </c>
       <c r="L9">
-        <v>13.3847079479861</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>13.29816813816679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.13655411013861</v>
+        <v>24.95366753042822</v>
       </c>
       <c r="C10">
-        <v>17.00247573726325</v>
+        <v>16.79675183407724</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.83426418151809</v>
+        <v>17.00056115212212</v>
       </c>
       <c r="F10">
-        <v>81.07725340063517</v>
+        <v>80.96390602418465</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.013076784486972</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.65132847189107</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>21.9919651040592</v>
+        <v>45.65191867335317</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.79491490017531</v>
       </c>
       <c r="L10">
-        <v>14.87030581927168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>14.7772590248713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.24963791215652</v>
+        <v>26.05807939973284</v>
       </c>
       <c r="C11">
-        <v>17.77793416520299</v>
+        <v>17.56580482421998</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.61588052330344</v>
+        <v>17.77672558959537</v>
       </c>
       <c r="F11">
-        <v>84.69840522199605</v>
+        <v>84.56946224644423</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.999531058006062</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>47.58103780768568</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>22.96038885709727</v>
+        <v>47.56903151669311</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.75678449035966</v>
       </c>
       <c r="L11">
-        <v>15.56643564985761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>15.46980444739097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.67018558664904</v>
+        <v>26.47529475990923</v>
       </c>
       <c r="C12">
-        <v>18.07196992103377</v>
+        <v>17.85734879122512</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.916246225864</v>
+        <v>18.07495753985622</v>
       </c>
       <c r="F12">
-        <v>86.07363412957713</v>
+        <v>85.9384625244093</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.994319672982536</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.31711709939473</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>23.32650385001963</v>
+        <v>48.30016418808966</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.12034244315157</v>
       </c>
       <c r="L12">
-        <v>15.83464382057327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>15.73652893106855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.57963141991821</v>
+        <v>26.38546112274031</v>
       </c>
       <c r="C13">
-        <v>18.00860630317095</v>
+        <v>17.79452533762865</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.85132735432653</v>
+        <v>18.01050209935845</v>
       </c>
       <c r="F13">
-        <v>85.77717227998801</v>
+        <v>85.64335890294981</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.995446181123554</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.15828936372649</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>23.2476592651934</v>
+        <v>48.14241124493403</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.04205249748299</v>
       </c>
       <c r="L13">
-        <v>15.77664340245246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>15.67885443381363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.28424718059991</v>
+        <v>26.0924157355666</v>
       </c>
       <c r="C14">
-        <v>17.80210962574506</v>
+        <v>17.58977681115669</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.64049162460705</v>
+        <v>17.80116281861619</v>
       </c>
       <c r="F14">
-        <v>84.81142930259927</v>
+        <v>84.68198121776847</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.999104133173444</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>47.64146638808842</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>22.99051365767946</v>
+        <v>47.62905723704362</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.78670063674807</v>
       </c>
       <c r="L14">
-        <v>15.58839763765924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>15.49164717199745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.10323535711153</v>
+        <v>25.91282895364849</v>
       </c>
       <c r="C15">
-        <v>17.67571204824398</v>
+        <v>17.46444038513346</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.51198235793028</v>
+        <v>17.6735597055403</v>
       </c>
       <c r="F15">
-        <v>84.22059130152195</v>
+        <v>84.09377070396812</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.001333160854491</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.32570550507459</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>22.83296573237516</v>
+        <v>47.31539534262622</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.63024058447246</v>
       </c>
       <c r="L15">
-        <v>15.47374923647162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>15.377617067868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.06360141076308</v>
+        <v>24.88127698724331</v>
       </c>
       <c r="C16">
-        <v>16.95178636098733</v>
+        <v>16.74647357518411</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.78368783599263</v>
+        <v>16.95033390606373</v>
       </c>
       <c r="F16">
-        <v>80.84082765170744</v>
+        <v>80.7284617477606</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.013952157983447</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.52576800510676</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>21.92852104926548</v>
+        <v>45.52716162960181</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.73189050778624</v>
       </c>
       <c r="L16">
-        <v>14.82535309739412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>14.73252520789165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.42266424719541</v>
+        <v>24.24525325603043</v>
       </c>
       <c r="C17">
-        <v>16.50712655275758</v>
+        <v>16.30538473565897</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.34264202502317</v>
+        <v>16.512320987534</v>
       </c>
       <c r="F17">
-        <v>78.76825310964976</v>
+        <v>78.66431913083053</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.021577836919393</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.42735396662098</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>21.3712540681419</v>
+        <v>44.43570534253564</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.17826325909803</v>
       </c>
       <c r="L17">
-        <v>14.4338315714611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>14.34284934924502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.05246812505828</v>
+        <v>23.87787767271968</v>
       </c>
       <c r="C18">
-        <v>16.25083712829683</v>
+        <v>16.05112660912</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.09053541635923</v>
+        <v>16.26194236038371</v>
       </c>
       <c r="F18">
-        <v>77.5748126573767</v>
+        <v>77.47560334407578</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.025929416415233</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>43.79673484786622</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>21.04948423421194</v>
+        <v>43.80902974771001</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.85855928917628</v>
       </c>
       <c r="L18">
-        <v>14.21042729703873</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>14.1204507637483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.92682725419831</v>
+        <v>23.75319176431828</v>
       </c>
       <c r="C19">
-        <v>16.16394209786277</v>
+        <v>15.96491616249058</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.00540070013979</v>
+        <v>16.17739084957643</v>
       </c>
       <c r="F19">
-        <v>77.17036198921355</v>
+        <v>77.07273375185389</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.027397547651659</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>43.58333513599288</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>20.94029407629073</v>
+        <v>43.59695714413162</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.75006458987378</v>
       </c>
       <c r="L19">
-        <v>14.13505036528712</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>14.04540561957108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.49104500043963</v>
+        <v>24.31311176527875</v>
       </c>
       <c r="C20">
-        <v>16.55450960017349</v>
+        <v>16.35239016295072</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.38941832895908</v>
+        <v>16.55877637603507</v>
       </c>
       <c r="F20">
-        <v>78.9889877103823</v>
+        <v>78.8841698006441</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.02076980962863</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.54414193126781</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>21.43069743686127</v>
+        <v>44.55175915958367</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.23732221044358</v>
       </c>
       <c r="L20">
-        <v>14.47531403092509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>14.38414133542435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.37102266787791</v>
+        <v>26.1785059052342</v>
       </c>
       <c r="C21">
-        <v>17.86274206661842</v>
+        <v>17.64989785363182</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.70228308305538</v>
+        <v>17.86251700980963</v>
       </c>
       <c r="F21">
-        <v>85.09493181819123</v>
+        <v>84.96421149124964</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.998032173842327</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47.79309415825082</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>23.06604908308887</v>
+        <v>47.77967166260287</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.86171152563266</v>
       </c>
       <c r="L21">
-        <v>15.64354917493923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>15.54649747850593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.59501817900286</v>
+        <v>27.39266131108873</v>
       </c>
       <c r="C22">
-        <v>18.72075085422696</v>
+        <v>18.50048945079615</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.5871741494776</v>
+        <v>18.74100904840397</v>
       </c>
       <c r="F22">
-        <v>89.11258506519619</v>
+        <v>88.9629574511787</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.982676127823277</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>49.94992900834006</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>24.13211769677588</v>
+        <v>49.92166340689318</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.92015464511591</v>
       </c>
       <c r="L22">
-        <v>16.43506997106401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>16.33340876403813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.94165696149112</v>
+        <v>26.74459551407147</v>
       </c>
       <c r="C23">
-        <v>18.26209636242933</v>
+        <v>18.04584345945263</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.11167903690937</v>
+        <v>18.2689869875428</v>
       </c>
       <c r="F23">
-        <v>86.96354044750113</v>
+        <v>86.82423841560571</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.990928092777721</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>48.79437064073169</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>23.5629089222703</v>
+        <v>48.77416216010006</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.3550709416713</v>
       </c>
       <c r="L23">
-        <v>16.00935374948867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>15.91023979990863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.46013548751749</v>
+        <v>24.28243836959628</v>
       </c>
       <c r="C24">
-        <v>16.53308982172608</v>
+        <v>16.3311411721738</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.3682663512133</v>
+        <v>16.53776953023678</v>
       </c>
       <c r="F24">
-        <v>78.88919986884811</v>
+        <v>78.78478195913313</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.021135218199561</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.49133959766323</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>21.40382750157003</v>
+        <v>44.4992889049204</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.21062615125043</v>
       </c>
       <c r="L24">
-        <v>14.45655467634851</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>14.36546826389788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.7216837548677</v>
+        <v>21.56473317008768</v>
       </c>
       <c r="C25">
-        <v>14.64548850880228</v>
+        <v>14.45814831803089</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.54461252720741</v>
+        <v>14.72669590983892</v>
       </c>
       <c r="F25">
-        <v>70.11786110005174</v>
+        <v>70.04644456455515</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.052452779983667</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.88848484464037</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>19.02488934064739</v>
+        <v>39.92468566501028</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.84646522522948</v>
       </c>
       <c r="L25">
-        <v>12.84685876944822</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>12.76233557424233</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.47737498151608</v>
+        <v>21.10796858678776</v>
       </c>
       <c r="C2">
-        <v>13.03070736866669</v>
+        <v>12.32696506997157</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.39743286964815</v>
+        <v>6.832905998153252</v>
       </c>
       <c r="F2">
-        <v>63.49985270860657</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.075123471186112</v>
+        <v>2.114779456002047</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>36.50881598362225</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.03109046871984</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.198291788651917</v>
       </c>
       <c r="M2">
-        <v>11.59387744036149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.72799390304069</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>36.54149805956666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.99700897966525</v>
+        <v>19.78413589846085</v>
       </c>
       <c r="C3">
-        <v>12.02291270469152</v>
+        <v>11.54427018064873</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.4843102495476</v>
+        <v>6.826044189964565</v>
       </c>
       <c r="F3">
-        <v>58.98726949866047</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.090497240696744</v>
+        <v>2.126721735845674</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>34.13826237276351</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.74296420729292</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.130518237373219</v>
       </c>
       <c r="M3">
-        <v>10.79476437557473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.23905892622885</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>35.12360766608298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.05259857160791</v>
+        <v>18.94537333691514</v>
       </c>
       <c r="C4">
-        <v>11.38152271484353</v>
+        <v>11.04229420115499</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.91399490519146</v>
+        <v>6.822638742933177</v>
       </c>
       <c r="F4">
-        <v>56.13294339438602</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.100006689318141</v>
+        <v>2.13419529225732</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>32.64944359927992</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.92056135048466</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.092182214797465</v>
       </c>
       <c r="M4">
-        <v>10.29687562657246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.9401300580265</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>34.25906843566462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.65845325846297</v>
+        <v>18.59723464267158</v>
       </c>
       <c r="C5">
-        <v>11.11412769070692</v>
+        <v>10.83227851132119</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.67872917609598</v>
+        <v>6.821435418199997</v>
       </c>
       <c r="F5">
-        <v>54.94761660216911</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.103907695947433</v>
+        <v>2.137279686433653</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>32.03372757828224</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.57712755557536</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.07736480048556</v>
       </c>
       <c r="M5">
-        <v>10.091713467031</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.81875837282701</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>33.90842557630179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.59243485372726</v>
+        <v>18.53905080448051</v>
       </c>
       <c r="C6">
-        <v>11.06935400839642</v>
+        <v>10.79707420210105</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.63947988566732</v>
+        <v>6.821246237164134</v>
       </c>
       <c r="F6">
-        <v>54.74942769752752</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.104557235952636</v>
+        <v>2.137794289103808</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>31.930929159603</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.51958921094687</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.074952431990932</v>
       </c>
       <c r="M6">
-        <v>10.05749764146007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.79863547892706</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>33.85030711290531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.04732105616618</v>
+        <v>18.94070356764368</v>
       </c>
       <c r="C7">
-        <v>11.3779413394998</v>
+        <v>11.03948403395004</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.91083410772633</v>
+        <v>6.822621790995152</v>
       </c>
       <c r="F7">
-        <v>56.11704869946548</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.100059184957734</v>
+        <v>2.134236727831022</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>32.6411770260267</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.91596374964702</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.091979148459557</v>
       </c>
       <c r="M7">
-        <v>10.29411846535204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.93849122221063</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>34.25433258517783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.97405916513152</v>
+        <v>20.65697509565104</v>
       </c>
       <c r="C8">
-        <v>12.68769095220643</v>
+        <v>12.06148098615567</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.08430546548532</v>
+        <v>6.83036049476953</v>
       </c>
       <c r="F8">
-        <v>61.96046721835368</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.08041517751316</v>
+        <v>2.118870053844201</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>35.6979106303612</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.59323567754022</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.174231529917215</v>
       </c>
       <c r="M8">
-        <v>11.31954833416326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.55921080786493</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>36.05142326790938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.49174477989372</v>
+        <v>24.00790076201426</v>
       </c>
       <c r="C9">
-        <v>15.09499188120818</v>
+        <v>13.90037405786338</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.3336999237322</v>
+        <v>6.852910357046081</v>
       </c>
       <c r="F9">
-        <v>73.01267359688462</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>2.042003024122809</v>
+        <v>2.089682409982664</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>41.46878406496126</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>19.65269215702342</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.362445754454416</v>
       </c>
       <c r="M9">
-        <v>13.29816813816679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.7823956673074</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>39.620363904062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.95366753042822</v>
+        <v>26.38979756949869</v>
       </c>
       <c r="C10">
-        <v>16.79675183407724</v>
+        <v>15.15869315958727</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.00056115212212</v>
+        <v>6.875545562527958</v>
       </c>
       <c r="F10">
-        <v>80.96390602418465</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>2.013076784486972</v>
+        <v>2.068543492893248</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>45.65191867335317</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.79491490017531</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.518534497682031</v>
       </c>
       <c r="M10">
-        <v>14.7772590248713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.81948524961296</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>42.27120343114875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.05807939973284</v>
+        <v>27.4370774318037</v>
       </c>
       <c r="C11">
-        <v>17.56580482421998</v>
+        <v>15.71328773184883</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.77672558959537</v>
+        <v>6.887591163264253</v>
       </c>
       <c r="F11">
-        <v>84.56946224644423</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>1.999531058006062</v>
+        <v>2.058921885830542</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>47.56903151669311</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>22.75678449035966</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.593770712160456</v>
       </c>
       <c r="M11">
-        <v>15.46980444739097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.40282833933654</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>43.48554114495848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.47529475990923</v>
+        <v>27.82879932106304</v>
       </c>
       <c r="C12">
-        <v>17.85734879122512</v>
+        <v>15.92096734351116</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>18.07495753985622</v>
+        <v>6.892447872274237</v>
       </c>
       <c r="F12">
-        <v>85.9384625244093</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>1.994319672982536</v>
+        <v>2.055270675930491</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>48.30016418808966</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>23.12034244315157</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.622904564179535</v>
       </c>
       <c r="M12">
-        <v>15.73652893106855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.62077277353401</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>43.94691674939062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.38546112274031</v>
+        <v>27.7446448534013</v>
       </c>
       <c r="C13">
-        <v>17.79452533762865</v>
+        <v>15.87633951932405</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>18.01050209935845</v>
+        <v>6.891387976641565</v>
       </c>
       <c r="F13">
-        <v>85.64335890294981</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.995446181123554</v>
+        <v>2.056057494279345</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>48.14241124493403</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>23.04205249748299</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.616600819605983</v>
       </c>
       <c r="M13">
-        <v>15.67885443381363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.57396219789387</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>43.84747669138584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.0924157355666</v>
+        <v>27.46939978322018</v>
       </c>
       <c r="C14">
-        <v>17.58977681115669</v>
+        <v>15.73041896660935</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.80116281861619</v>
+        <v>6.887984530226881</v>
       </c>
       <c r="F14">
-        <v>84.68198121776847</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>1.999104133173444</v>
+        <v>2.058621696720598</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>47.62905723704362</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>22.78670063674807</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.596154450810681</v>
       </c>
       <c r="M14">
-        <v>15.49164717199745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.42081663560325</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>43.52346581468492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.91282895364849</v>
+        <v>27.30018284990149</v>
       </c>
       <c r="C15">
-        <v>17.46444038513346</v>
+        <v>15.64074202740407</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.6735597055403</v>
+        <v>6.885939712169479</v>
       </c>
       <c r="F15">
-        <v>84.09377070396812</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>2.001333160854491</v>
+        <v>2.060191116183997</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>47.31539534262622</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>22.63024058447246</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.583715414906398</v>
       </c>
       <c r="M15">
-        <v>15.377617067868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.32663266067576</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>43.32521091440354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.88127698724331</v>
+        <v>26.32065458464275</v>
       </c>
       <c r="C16">
-        <v>16.74647357518411</v>
+        <v>15.12210922100372</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.95033390606373</v>
+        <v>6.874797117876989</v>
       </c>
       <c r="F16">
-        <v>80.7284617477606</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.013952157983447</v>
+        <v>2.069171608682096</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>45.52716162960181</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.73189050778624</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.513705636840325</v>
       </c>
       <c r="M16">
-        <v>14.73252520789165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.78093646757156</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>42.19203794766091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.24525325603043</v>
+        <v>25.7106916307133</v>
       </c>
       <c r="C17">
-        <v>16.30538473565897</v>
+        <v>14.79953162447786</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.512320987534</v>
+        <v>6.868438245642235</v>
       </c>
       <c r="F17">
-        <v>78.66431913083053</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>2.021577836919393</v>
+        <v>2.0746748408754</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>44.43570534253564</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.17826325909803</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.471863683162366</v>
       </c>
       <c r="M17">
-        <v>14.34284934924502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.4406659589869</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>41.49922502284036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.87787767271968</v>
+        <v>25.35641970056223</v>
       </c>
       <c r="C18">
-        <v>16.05112660912</v>
+        <v>14.61230023731756</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.26194236038371</v>
+        <v>6.864942356405003</v>
       </c>
       <c r="F18">
-        <v>77.47560334407578</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>2.025929416415233</v>
+        <v>2.077840116079766</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>43.80902974771001</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>20.85855928917628</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.448193093957546</v>
       </c>
       <c r="M18">
-        <v>14.1204507637483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.28562977893673</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>41.10150732469076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.75319176431828</v>
+        <v>25.23586917161505</v>
       </c>
       <c r="C19">
-        <v>15.96491616249058</v>
+        <v>14.54860971509478</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.17739084957643</v>
+        <v>6.863785243207358</v>
       </c>
       <c r="F19">
-        <v>77.07273375185389</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>2.027397547651659</v>
+        <v>2.078912012429637</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>43.59695714413162</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20.75006458987378</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.440245640800546</v>
       </c>
       <c r="M19">
-        <v>14.04540561957108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.24003197205948</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>40.96697158739821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.31311176527875</v>
+        <v>25.77597662038256</v>
       </c>
       <c r="C20">
-        <v>16.35239016295072</v>
+        <v>14.83404427024185</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.55877637603507</v>
+        <v>6.869098143611811</v>
       </c>
       <c r="F20">
-        <v>78.8841698006441</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>2.02076980962863</v>
+        <v>2.074089063418145</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>44.55175915958367</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.23732221044358</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.47627663142545</v>
       </c>
       <c r="M20">
-        <v>14.38414133542435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.47710321725134</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>41.57289456306722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.1785059052342</v>
+        <v>27.55037470570125</v>
       </c>
       <c r="C21">
-        <v>17.64989785363182</v>
+        <v>15.77334067073485</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.86251700980963</v>
+        <v>6.888975802089645</v>
       </c>
       <c r="F21">
-        <v>84.96421149124964</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.998032173842327</v>
+        <v>2.05786879823269</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>47.77967166260287</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>22.86171152563266</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.602142268576258</v>
       </c>
       <c r="M21">
-        <v>15.54649747850593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.46587752419153</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>43.6185909181653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.39266131108873</v>
+        <v>28.68192860019257</v>
       </c>
       <c r="C22">
-        <v>18.50048945079615</v>
+        <v>16.37376112229116</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.74100904840397</v>
+        <v>6.903714592908444</v>
       </c>
       <c r="F22">
-        <v>88.9629574511787</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>1.982676127823277</v>
+        <v>2.0472189248853</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>49.92166340689318</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>23.92015464511591</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.688174850367999</v>
       </c>
       <c r="M22">
-        <v>16.33340876403813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16.09499769816037</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>44.96474587543086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.74459551407147</v>
+        <v>28.0804359426013</v>
       </c>
       <c r="C23">
-        <v>18.04584345945263</v>
+        <v>16.05445092023669</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.2689869875428</v>
+        <v>6.895671695598124</v>
       </c>
       <c r="F23">
-        <v>86.82423841560571</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>1.990928092777721</v>
+        <v>2.0529100223691</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>48.77416216010006</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>23.3550709416713</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.641899171983686</v>
       </c>
       <c r="M23">
-        <v>15.91023979990863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.76070969337232</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>44.24529923034695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.28243836959628</v>
+        <v>25.74647250346573</v>
       </c>
       <c r="C24">
-        <v>16.3311411721738</v>
+        <v>14.81844665552728</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.53776953023678</v>
+        <v>6.868799308842713</v>
       </c>
       <c r="F24">
-        <v>78.78478195913313</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>2.021135218199561</v>
+        <v>2.074353888556662</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>44.4992889049204</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.21062615125043</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.474280341184924</v>
       </c>
       <c r="M24">
-        <v>14.36546826389788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.46063673611849</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>41.53958674936222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.56473317008768</v>
+        <v>23.09657459619</v>
       </c>
       <c r="C25">
-        <v>14.45814831803089</v>
+        <v>13.41986049187165</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.72669590983892</v>
+        <v>6.845872657006274</v>
       </c>
       <c r="F25">
-        <v>70.04644456455515</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.052452779983667</v>
+        <v>2.097503154408951</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>39.92468566501028</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.84646522522948</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.308510965265078</v>
       </c>
       <c r="M25">
-        <v>12.76233557424233</v>
+        <v>13.45133328135325</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>38.65022369242031</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10796858678776</v>
+        <v>12.77403415182781</v>
       </c>
       <c r="C2">
-        <v>12.32696506997157</v>
+        <v>6.627871958273467</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.832905998153252</v>
+        <v>14.7164405080572</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>33.50587106077475</v>
       </c>
       <c r="G2">
-        <v>2.114779456002047</v>
+        <v>30.39141368010612</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.70442035584161</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.236302362798942</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.14631490515576</v>
       </c>
       <c r="L2">
-        <v>6.198291788651917</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.72799390304069</v>
+        <v>14.25524060396549</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.24471709487722</v>
       </c>
       <c r="O2">
-        <v>36.54149805956666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.78413589846085</v>
+        <v>11.89719617812656</v>
       </c>
       <c r="C3">
-        <v>11.54427018064873</v>
+        <v>6.250411327395384</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.826044189964565</v>
+        <v>14.03124072538695</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>32.39344747432749</v>
       </c>
       <c r="G3">
-        <v>2.126721735845674</v>
+        <v>29.85444398149037</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.72996034100287</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.293366438097791</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.4402920597423</v>
       </c>
       <c r="L3">
-        <v>6.130518237373219</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.23905892622885</v>
+        <v>13.57545445409201</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.47484844673515</v>
       </c>
       <c r="O3">
-        <v>35.12360766608298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.94537333691514</v>
+        <v>11.32817760541819</v>
       </c>
       <c r="C4">
-        <v>11.04229420115499</v>
+        <v>6.007479638595087</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.822638742933177</v>
+        <v>13.60151240051361</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>31.718825441221</v>
       </c>
       <c r="G4">
-        <v>2.13419529225732</v>
+        <v>29.55368625705765</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.75303436406663</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.329270957262787</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.983455964613452</v>
       </c>
       <c r="L4">
-        <v>6.092182214797465</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.9401300580265</v>
+        <v>13.1479382170689</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.61923731897233</v>
       </c>
       <c r="O4">
-        <v>34.25906843566462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.59723464267158</v>
+        <v>11.08853382992068</v>
       </c>
       <c r="C5">
-        <v>10.83227851132119</v>
+        <v>5.905696407600594</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.821435418199997</v>
+        <v>13.42436010985303</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>31.44635732267732</v>
       </c>
       <c r="G5">
-        <v>2.137279686433653</v>
+        <v>29.43828169809004</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.76422044136168</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.344127483195495</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.791413507125817</v>
       </c>
       <c r="L5">
-        <v>6.07736480048556</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.81875837282701</v>
+        <v>12.97140346090517</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.67887801601156</v>
       </c>
       <c r="O5">
-        <v>33.90842557630179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.53905080448051</v>
+        <v>11.04827049378051</v>
       </c>
       <c r="C6">
-        <v>10.79707420210105</v>
+        <v>5.888627922680569</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.821246237164134</v>
+        <v>13.39482869197939</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>31.40127189537511</v>
       </c>
       <c r="G6">
-        <v>2.137794289103808</v>
+        <v>29.41954704735631</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.76618341296786</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.346608198491612</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.759169875370878</v>
       </c>
       <c r="L6">
-        <v>6.074952431990932</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.79863547892706</v>
+        <v>12.94195733284242</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.68883039744724</v>
       </c>
       <c r="O6">
-        <v>33.85030711290531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94070356764368</v>
+        <v>11.32497720117511</v>
       </c>
       <c r="C7">
-        <v>11.03948403395004</v>
+        <v>6.006118200598256</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.822621790995152</v>
+        <v>13.59913116821804</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>31.71514048866116</v>
       </c>
       <c r="G7">
-        <v>2.134236727831022</v>
+        <v>29.55210107313925</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.75317810156704</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.329470396766971</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.980889819481257</v>
       </c>
       <c r="L7">
-        <v>6.091979148459557</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.93849122221063</v>
+        <v>13.14556646750852</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.62003837869196</v>
       </c>
       <c r="O7">
-        <v>34.25433258517783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.65697509565104</v>
+        <v>12.47802225144321</v>
       </c>
       <c r="C8">
-        <v>12.06148098615567</v>
+        <v>6.500051825587749</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.83036049476953</v>
+        <v>14.48218250009126</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>33.12075457483636</v>
       </c>
       <c r="G8">
-        <v>2.118870053844201</v>
+        <v>30.20019380766112</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.71164608414434</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.255802536041196</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.90771236004951</v>
       </c>
       <c r="L8">
-        <v>6.174231529917215</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.55921080786493</v>
+        <v>14.02307713557217</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.32344080453249</v>
       </c>
       <c r="O8">
-        <v>36.05142326790938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.00790076201426</v>
+        <v>14.49885237720446</v>
       </c>
       <c r="C9">
-        <v>13.90037405786338</v>
+        <v>7.379566230574644</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.852910357046081</v>
+        <v>16.13392895505049</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>35.930530496618</v>
       </c>
       <c r="G9">
-        <v>2.089682409982664</v>
+        <v>31.7050194692935</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.69235499879163</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.117875817620216</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.54099623445131</v>
       </c>
       <c r="L9">
-        <v>6.362445754454416</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.7823956673074</v>
+        <v>15.65535411918896</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.76514055902091</v>
       </c>
       <c r="O9">
-        <v>39.620363904062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.38979756949869</v>
+        <v>15.84108633463326</v>
       </c>
       <c r="C10">
-        <v>15.15869315958727</v>
+        <v>7.971435585906559</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.875545562527958</v>
+        <v>17.2898794057664</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>38.01176714159277</v>
       </c>
       <c r="G10">
-        <v>2.068543492893248</v>
+        <v>32.95775626486318</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.72103354825264</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.020015679018066</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.63055282662779</v>
       </c>
       <c r="L10">
-        <v>6.518534497682031</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.81948524961296</v>
+        <v>16.86166850308548</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.36747790890115</v>
       </c>
       <c r="O10">
-        <v>42.27120343114875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.4370774318037</v>
+        <v>16.42168273498614</v>
       </c>
       <c r="C11">
-        <v>15.71328773184883</v>
+        <v>8.22904959641593</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.887591163264253</v>
+        <v>17.80199564384038</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>38.9596811149456</v>
       </c>
       <c r="G11">
-        <v>2.058921885830542</v>
+        <v>33.56030776950682</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.74449986155416</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.976129882686843</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.10278871409759</v>
       </c>
       <c r="L11">
-        <v>6.593770712160456</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.40282833933654</v>
+        <v>17.47972416815768</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.1889009825753</v>
       </c>
       <c r="O11">
-        <v>43.48554114495848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.82879932106304</v>
+        <v>16.63730485593169</v>
       </c>
       <c r="C12">
-        <v>15.92096734351116</v>
+        <v>8.324948858903701</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.892447872274237</v>
+        <v>17.993878112977</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.3186374276158</v>
       </c>
       <c r="G12">
-        <v>2.055270675930491</v>
+        <v>33.79322342459943</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.75497943212173</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.959591527712135</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.27829768246542</v>
       </c>
       <c r="L12">
-        <v>6.622904564179535</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.62077277353401</v>
+        <v>17.70936583901966</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.12157957773359</v>
       </c>
       <c r="O12">
-        <v>43.94691674939062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.7446448534013</v>
+        <v>16.59105397435758</v>
       </c>
       <c r="C13">
-        <v>15.87633951932405</v>
+        <v>8.304368418225033</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.891387976641565</v>
+        <v>17.95264458454234</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.24133179999409</v>
       </c>
       <c r="G13">
-        <v>2.056057494279345</v>
+        <v>33.74284922735459</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.75265006247761</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.963149965396827</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.24064533531535</v>
       </c>
       <c r="L13">
-        <v>6.616600819605983</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.57396219789387</v>
+        <v>17.66010279068812</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.13606554695222</v>
       </c>
       <c r="O13">
-        <v>43.84747669138584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.46939978322018</v>
+        <v>16.4395065675657</v>
       </c>
       <c r="C14">
-        <v>15.73041896660935</v>
+        <v>8.236972297964869</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.887984530226881</v>
+        <v>17.81782322404004</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>38.98921340469978</v>
       </c>
       <c r="G14">
-        <v>2.058621696720598</v>
+        <v>33.5793745766442</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.74532953493888</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.974767717111626</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.1172941051035</v>
       </c>
       <c r="L14">
-        <v>6.596154450810681</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.42081663560325</v>
+        <v>17.49870465468788</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.18335654929493</v>
       </c>
       <c r="O14">
-        <v>43.52346581468492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.30018284990149</v>
+        <v>16.34612991838658</v>
       </c>
       <c r="C15">
-        <v>15.64074202740407</v>
+        <v>8.195475542629858</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.885939712169479</v>
+        <v>17.73497329776993</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.83477977088509</v>
       </c>
       <c r="G15">
-        <v>2.060191116183997</v>
+        <v>33.47986057127629</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.74105586999391</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.981894050060991</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.0413075808601</v>
       </c>
       <c r="L15">
-        <v>6.583715414906398</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.32663266067576</v>
+        <v>17.39927290529574</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.21236198596743</v>
       </c>
       <c r="O15">
-        <v>43.32521091440354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.32065458464275</v>
+        <v>15.80254585805075</v>
       </c>
       <c r="C16">
-        <v>15.12210922100372</v>
+        <v>7.954367351518944</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.874797117876989</v>
+        <v>17.25612850199397</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.94982686987896</v>
       </c>
       <c r="G16">
-        <v>2.069171608682096</v>
+        <v>32.91903934527834</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.71971771009079</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.022895538531227</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.59922416480423</v>
       </c>
       <c r="L16">
-        <v>6.513705636840325</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.78093646757156</v>
+        <v>16.82065627403216</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.37919233636599</v>
       </c>
       <c r="O16">
-        <v>42.19203794766091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.7106916307133</v>
+        <v>15.46144556592526</v>
       </c>
       <c r="C17">
-        <v>14.79953162447786</v>
+        <v>7.803488041553705</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.868438245642235</v>
+        <v>16.95879759848492</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>37.40710089172482</v>
       </c>
       <c r="G17">
-        <v>2.0746748408754</v>
+        <v>32.58339377921341</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.70936306459928</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.04820304724241</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.32205819896742</v>
       </c>
       <c r="L17">
-        <v>6.471863683162366</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.4406659589869</v>
+        <v>16.46689240750586</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.48210956925695</v>
       </c>
       <c r="O17">
-        <v>41.49922502284036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.35641970056223</v>
+        <v>15.26242591174444</v>
       </c>
       <c r="C18">
-        <v>14.61230023731756</v>
+        <v>7.715610044748715</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.864942356405003</v>
+        <v>16.78649077194011</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>37.09505444588718</v>
       </c>
       <c r="G18">
-        <v>2.077840116079766</v>
+        <v>32.39341246352816</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.70438231387299</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.062819348759763</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.16043296872621</v>
       </c>
       <c r="L18">
-        <v>6.448193093957546</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.28562977893673</v>
+        <v>16.2975455956849</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.54152537030657</v>
       </c>
       <c r="O18">
-        <v>41.10150732469076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.23586917161505</v>
+        <v>15.19455335359733</v>
       </c>
       <c r="C19">
-        <v>14.54860971509478</v>
+        <v>7.685667310987119</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.863785243207358</v>
+        <v>16.72793165206879</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.98942637057441</v>
       </c>
       <c r="G19">
-        <v>2.078912012429637</v>
+        <v>32.32961453841621</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.70286051822832</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.067778806945747</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.10532902368936</v>
       </c>
       <c r="L19">
-        <v>6.440245640800546</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.24003197205948</v>
+        <v>16.23997193533593</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.56168137438356</v>
       </c>
       <c r="O19">
-        <v>40.96697158739821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.77597662038256</v>
+        <v>15.49804840273755</v>
       </c>
       <c r="C20">
-        <v>14.83404427024185</v>
+        <v>7.819662736861134</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.869098143611811</v>
+        <v>16.99058307625099</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>37.46486440342667</v>
       </c>
       <c r="G20">
-        <v>2.074089063418145</v>
+        <v>32.61880545062527</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.71036374935816</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.045502874368989</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.35179103288574</v>
       </c>
       <c r="L20">
-        <v>6.47627663142545</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.47710321725134</v>
+        <v>16.49812212234647</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.4711312586986</v>
       </c>
       <c r="O20">
-        <v>41.57289456306722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.55037470570125</v>
+        <v>16.48413408630847</v>
       </c>
       <c r="C21">
-        <v>15.77334067073485</v>
+        <v>8.256812870737683</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.888975802089645</v>
+        <v>17.85747945637897</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.06326771634588</v>
       </c>
       <c r="G21">
-        <v>2.05786879823269</v>
+        <v>33.62726197625967</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.74743573734357</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.971353211751329</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.15361493581176</v>
       </c>
       <c r="L21">
-        <v>6.602142268576258</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.46587752419153</v>
+        <v>17.54622997992378</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.16945810601279</v>
       </c>
       <c r="O21">
-        <v>43.6185909181653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.68192860019257</v>
+        <v>17.10393881402442</v>
       </c>
       <c r="C22">
-        <v>16.37376112229116</v>
+        <v>8.532890267423941</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.903714592908444</v>
+        <v>18.41211247142532</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.10788417838777</v>
       </c>
       <c r="G22">
-        <v>2.0472189248853</v>
+        <v>34.31401249121285</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.78099786574623</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.923354393958927</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.65834924272476</v>
       </c>
       <c r="L22">
-        <v>6.688174850367999</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.09499769816037</v>
+        <v>18.20654377891536</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.97404071171736</v>
       </c>
       <c r="O22">
-        <v>44.96474587543086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.0804359426013</v>
+        <v>16.77536763855462</v>
       </c>
       <c r="C23">
-        <v>16.05445092023669</v>
+        <v>8.386415580024458</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.895671695598124</v>
+        <v>18.11720307577194</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>39.55039787046243</v>
       </c>
       <c r="G23">
-        <v>2.0529100223691</v>
+        <v>33.94493410702435</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.76219904955441</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.948933650492511</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.39071142704852</v>
       </c>
       <c r="L23">
-        <v>6.641899171983686</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.76070969337232</v>
+        <v>17.8564364484073</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.07819001652427</v>
       </c>
       <c r="O23">
-        <v>44.24529923034695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.74647250346573</v>
+        <v>15.48150935030908</v>
       </c>
       <c r="C24">
-        <v>14.81844665552728</v>
+        <v>7.812353695211756</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.868799308842713</v>
+        <v>16.97621711505687</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>37.43874958797191</v>
       </c>
       <c r="G24">
-        <v>2.074353888556662</v>
+        <v>32.60278653713945</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.70990831852427</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.046723414052038</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.33835592038808</v>
       </c>
       <c r="L24">
-        <v>6.474280341184924</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.46063673611849</v>
+        <v>16.48400771935901</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.47609378016413</v>
       </c>
       <c r="O24">
-        <v>41.53958674936222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.09657459619</v>
+        <v>13.97748280305484</v>
       </c>
       <c r="C25">
-        <v>13.41986049187165</v>
+        <v>7.151200304194795</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.845872657006274</v>
+        <v>15.69667976657761</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>35.16644062630481</v>
       </c>
       <c r="G25">
-        <v>2.097503154408951</v>
+        <v>31.27234817420094</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.69041673005657</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.154539658836094</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.11870286715535</v>
       </c>
       <c r="L25">
-        <v>6.308510965265078</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.45133328135325</v>
+        <v>15.22426241884879</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.91384977216914</v>
       </c>
       <c r="O25">
-        <v>38.65022369242031</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.77403415182781</v>
+        <v>10.56763069546768</v>
       </c>
       <c r="C2">
-        <v>6.627871958273467</v>
+        <v>4.236652108051314</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.7164405080572</v>
+        <v>18.72659692017758</v>
       </c>
       <c r="F2">
-        <v>33.50587106077475</v>
+        <v>42.43465696815652</v>
       </c>
       <c r="G2">
-        <v>30.39141368010612</v>
+        <v>37.98695560698908</v>
       </c>
       <c r="H2">
-        <v>10.70442035584161</v>
+        <v>16.58317817649886</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.236302362798942</v>
+        <v>8.66396323277201</v>
       </c>
       <c r="K2">
-        <v>11.14631490515576</v>
+        <v>9.9506573560273</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.25524060396549</v>
+        <v>17.84820150238873</v>
       </c>
       <c r="N2">
-        <v>13.24471709487722</v>
+        <v>20.29459104553</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.89719617812656</v>
+        <v>10.34047401061864</v>
       </c>
       <c r="C3">
-        <v>6.250411327395384</v>
+        <v>4.050916498618962</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.03124072538695</v>
+        <v>18.64269901700582</v>
       </c>
       <c r="F3">
-        <v>32.39344747432749</v>
+        <v>42.34753485456569</v>
       </c>
       <c r="G3">
-        <v>29.85444398149037</v>
+        <v>38.00591867616666</v>
       </c>
       <c r="H3">
-        <v>10.72996034100287</v>
+        <v>16.62830501849678</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.293366438097791</v>
+        <v>8.681937061425256</v>
       </c>
       <c r="K3">
-        <v>10.4402920597423</v>
+        <v>9.806429210274601</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.57545445409201</v>
+        <v>17.75609966239461</v>
       </c>
       <c r="N3">
-        <v>13.47484844673515</v>
+        <v>20.36054486379675</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.32817760541819</v>
+        <v>10.20110140270072</v>
       </c>
       <c r="C4">
-        <v>6.007479638595087</v>
+        <v>3.931520962450746</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.60151240051361</v>
+        <v>18.59472313278851</v>
       </c>
       <c r="F4">
-        <v>31.718825441221</v>
+        <v>42.30435450494544</v>
       </c>
       <c r="G4">
-        <v>29.55368625705765</v>
+        <v>38.02857542752347</v>
       </c>
       <c r="H4">
-        <v>10.75303436406663</v>
+        <v>16.65875794916247</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.329270957262787</v>
+        <v>8.693524692733629</v>
       </c>
       <c r="K4">
-        <v>9.983455964613452</v>
+        <v>9.719081656557593</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.1479382170689</v>
+        <v>17.70283597219475</v>
       </c>
       <c r="N4">
-        <v>13.61923731897233</v>
+        <v>20.4029300596753</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.08853382992068</v>
+        <v>10.14441931257148</v>
       </c>
       <c r="C5">
-        <v>5.905696407600594</v>
+        <v>3.881555914051275</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.42436010985303</v>
+        <v>18.57607650915467</v>
       </c>
       <c r="F5">
-        <v>31.44635732267732</v>
+        <v>42.28936236007718</v>
       </c>
       <c r="G5">
-        <v>29.43828169809004</v>
+        <v>38.0405705759162</v>
       </c>
       <c r="H5">
-        <v>10.76422044136168</v>
+        <v>16.6718572093637</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.344127483195495</v>
+        <v>8.698385876187157</v>
       </c>
       <c r="K5">
-        <v>9.791413507125817</v>
+        <v>9.683836004845874</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.97140346090517</v>
+        <v>17.68197434148266</v>
       </c>
       <c r="N5">
-        <v>13.67887801601156</v>
+        <v>20.4206787619059</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.04827049378051</v>
+        <v>10.13501674047457</v>
       </c>
       <c r="C6">
-        <v>5.888627922680569</v>
+        <v>3.873181265564088</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.39482869197939</v>
+        <v>18.57303524322086</v>
       </c>
       <c r="F6">
-        <v>31.40127189537511</v>
+        <v>42.28703048232643</v>
       </c>
       <c r="G6">
-        <v>29.41954704735631</v>
+        <v>38.04272895920612</v>
       </c>
       <c r="H6">
-        <v>10.76618341296786</v>
+        <v>16.67407394909639</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.346608198491612</v>
+        <v>8.699201487387244</v>
       </c>
       <c r="K6">
-        <v>9.759169875370878</v>
+        <v>9.678005891646652</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.94195733284242</v>
+        <v>17.67856172272747</v>
       </c>
       <c r="N6">
-        <v>13.68883039744724</v>
+        <v>20.42365473192518</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.32497720117511</v>
+        <v>10.20033639196061</v>
       </c>
       <c r="C7">
-        <v>6.006118200598256</v>
+        <v>3.930852370778092</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.59913116821804</v>
+        <v>18.59446797982351</v>
       </c>
       <c r="F7">
-        <v>31.71514048866116</v>
+        <v>42.30414175886321</v>
       </c>
       <c r="G7">
-        <v>29.55210107313925</v>
+        <v>38.02872602438387</v>
       </c>
       <c r="H7">
-        <v>10.75317810156704</v>
+        <v>16.65893181990292</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.329470396766971</v>
+        <v>8.693589688469745</v>
       </c>
       <c r="K7">
-        <v>9.980889819481257</v>
+        <v>9.718604848225281</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.14556646750852</v>
+        <v>17.70255118683057</v>
       </c>
       <c r="N7">
-        <v>13.62003837869196</v>
+        <v>20.40316749426648</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.47802225144321</v>
+        <v>10.48933768862761</v>
       </c>
       <c r="C8">
-        <v>6.500051825587749</v>
+        <v>4.173741217521377</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.48218250009126</v>
+        <v>18.69694360770619</v>
       </c>
       <c r="F8">
-        <v>33.12075457483636</v>
+        <v>42.40248410139932</v>
       </c>
       <c r="G8">
-        <v>30.20019380766112</v>
+        <v>37.99120452398581</v>
       </c>
       <c r="H8">
-        <v>10.71164608414434</v>
+        <v>16.59816775576523</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.255802536041196</v>
+        <v>8.670046371168064</v>
       </c>
       <c r="K8">
-        <v>10.90771236004951</v>
+        <v>9.900703734398714</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.02307713557217</v>
+        <v>17.81577316972126</v>
       </c>
       <c r="N8">
-        <v>13.32344080453249</v>
+        <v>20.31694059623657</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.49885237720446</v>
+        <v>11.05315429000948</v>
       </c>
       <c r="C9">
-        <v>7.379566230574644</v>
+        <v>4.606271930056406</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.13392895505049</v>
+        <v>18.92528731468651</v>
       </c>
       <c r="F9">
-        <v>35.930530496618</v>
+        <v>42.67657224246092</v>
       </c>
       <c r="G9">
-        <v>31.7050194692935</v>
+        <v>38.00525021920998</v>
       </c>
       <c r="H9">
-        <v>10.69235499879163</v>
+        <v>16.50082308014222</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.117875817620216</v>
+        <v>8.628235655116208</v>
       </c>
       <c r="K9">
-        <v>12.54099623445131</v>
+        <v>10.26539833155499</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.65535411918896</v>
+        <v>18.06307792330862</v>
       </c>
       <c r="N9">
-        <v>12.76514055902091</v>
+        <v>20.16277935181317</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.84108633463326</v>
+        <v>11.46084310514411</v>
       </c>
       <c r="C10">
-        <v>7.971435585906559</v>
+        <v>4.895953982972758</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.2898794057664</v>
+        <v>19.10876597895138</v>
       </c>
       <c r="F10">
-        <v>38.01176714159277</v>
+        <v>42.92652176250393</v>
       </c>
       <c r="G10">
-        <v>32.95775626486318</v>
+        <v>38.06920249075064</v>
       </c>
       <c r="H10">
-        <v>10.72103354825264</v>
+        <v>16.44264800289298</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.020015679018066</v>
+        <v>8.600146657399399</v>
       </c>
       <c r="K10">
-        <v>13.63055282662779</v>
+        <v>10.53531248430165</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.86166850308548</v>
+        <v>18.25903333562719</v>
       </c>
       <c r="N10">
-        <v>12.36747790890115</v>
+        <v>20.058531140353</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.42168273498614</v>
+        <v>11.64395625395883</v>
       </c>
       <c r="C11">
-        <v>8.22904959641593</v>
+        <v>5.021416862081947</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.80199564384038</v>
+        <v>19.19541767453644</v>
       </c>
       <c r="F11">
-        <v>38.9596811149456</v>
+        <v>43.05052462309826</v>
       </c>
       <c r="G11">
-        <v>33.56030776950682</v>
+        <v>38.10994795007716</v>
       </c>
       <c r="H11">
-        <v>10.74449986155416</v>
+        <v>16.41908955238706</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.976129882686843</v>
+        <v>8.587933379467168</v>
       </c>
       <c r="K11">
-        <v>14.10278871409759</v>
+        <v>10.65797991861503</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.47972416815768</v>
+        <v>18.35101107785629</v>
       </c>
       <c r="N11">
-        <v>12.1889009825753</v>
+        <v>20.01304463359658</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.63730485593169</v>
+        <v>11.71288721003236</v>
       </c>
       <c r="C12">
-        <v>8.324948858903701</v>
+        <v>5.068004074574109</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.993878112977</v>
+        <v>19.22866787341689</v>
       </c>
       <c r="F12">
-        <v>39.3186374276158</v>
+        <v>43.09893702569592</v>
       </c>
       <c r="G12">
-        <v>33.79322342459943</v>
+        <v>38.12704997845528</v>
       </c>
       <c r="H12">
-        <v>10.75497943212173</v>
+        <v>16.41058714769049</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.959591527712135</v>
+        <v>8.583389276403008</v>
       </c>
       <c r="K12">
-        <v>14.27829768246542</v>
+        <v>10.70436930120746</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.70936583901966</v>
+        <v>18.38622510464071</v>
       </c>
       <c r="N12">
-        <v>12.12157957773359</v>
+        <v>19.99609718757726</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.59105397435758</v>
+        <v>11.6980610364465</v>
       </c>
       <c r="C13">
-        <v>8.304368418225033</v>
+        <v>5.05801193577221</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.95264458454234</v>
+        <v>19.22148775281246</v>
       </c>
       <c r="F13">
-        <v>39.24133179999409</v>
+        <v>43.08844626380517</v>
       </c>
       <c r="G13">
-        <v>33.74284922735459</v>
+        <v>38.12329243221357</v>
       </c>
       <c r="H13">
-        <v>10.75265006247761</v>
+        <v>16.41239965933564</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.963149965396827</v>
+        <v>8.584364342725008</v>
       </c>
       <c r="K13">
-        <v>14.24064533531535</v>
+        <v>10.69438198377289</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.66010279068812</v>
+        <v>18.37862443966689</v>
       </c>
       <c r="N13">
-        <v>12.13606554695222</v>
+        <v>19.99973480838237</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.4395065675657</v>
+        <v>11.64963586155476</v>
       </c>
       <c r="C14">
-        <v>8.236972297964869</v>
+        <v>5.025268190542792</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.81782322404004</v>
+        <v>19.19814455218641</v>
       </c>
       <c r="F14">
-        <v>38.98921340469978</v>
+        <v>43.0544785322828</v>
       </c>
       <c r="G14">
-        <v>33.5793745766442</v>
+        <v>38.11132144777891</v>
       </c>
       <c r="H14">
-        <v>10.74532953493888</v>
+        <v>16.41838165903031</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.974767717111626</v>
+        <v>8.587557916188175</v>
       </c>
       <c r="K14">
-        <v>14.1172941051035</v>
+        <v>10.66179789941613</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.49870465468788</v>
+        <v>18.35390059896283</v>
       </c>
       <c r="N14">
-        <v>12.18335654929493</v>
+        <v>20.01164480598619</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.34612991838658</v>
+        <v>11.61991857342112</v>
       </c>
       <c r="C15">
-        <v>8.195475542629858</v>
+        <v>5.005091125795247</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.73497329776993</v>
+        <v>19.18390244952947</v>
       </c>
       <c r="F15">
-        <v>38.83477977088509</v>
+        <v>43.0338610206001</v>
       </c>
       <c r="G15">
-        <v>33.47986057127629</v>
+        <v>38.10420656982114</v>
       </c>
       <c r="H15">
-        <v>10.74105586999391</v>
+        <v>16.4221003538129</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.981894050060991</v>
+        <v>8.589524583464515</v>
       </c>
       <c r="K15">
-        <v>14.0413075808601</v>
+        <v>10.64182980216154</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.39927290529574</v>
+        <v>18.33880582860698</v>
       </c>
       <c r="N15">
-        <v>12.21236198596743</v>
+        <v>20.01897610265863</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.80254585805075</v>
+        <v>11.44882269916593</v>
       </c>
       <c r="C16">
-        <v>7.954367351518944</v>
+        <v>4.887626289742912</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.25612850199397</v>
+        <v>19.10316541707311</v>
       </c>
       <c r="F16">
-        <v>37.94982686987896</v>
+        <v>42.91862298045049</v>
       </c>
       <c r="G16">
-        <v>32.91903934527834</v>
+        <v>38.06677395238177</v>
       </c>
       <c r="H16">
-        <v>10.71971771009079</v>
+        <v>16.44424614508758</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.022895538531227</v>
+        <v>8.600956151335604</v>
       </c>
       <c r="K16">
-        <v>13.59922416480423</v>
+        <v>10.52728961438551</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.82065627403216</v>
+        <v>18.2530774303635</v>
       </c>
       <c r="N16">
-        <v>12.37919233636599</v>
+        <v>20.06154265866496</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.46144556592526</v>
+        <v>11.34320678040427</v>
       </c>
       <c r="C17">
-        <v>7.803488041553705</v>
+        <v>4.813936605262485</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.95879759848492</v>
+        <v>19.05443718668941</v>
       </c>
       <c r="F17">
-        <v>37.40710089172482</v>
+        <v>42.85054848751835</v>
       </c>
       <c r="G17">
-        <v>32.58339377921341</v>
+        <v>38.04679335904861</v>
       </c>
       <c r="H17">
-        <v>10.70936306459928</v>
+        <v>16.45857669225168</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.04820304724241</v>
+        <v>8.608113370095786</v>
       </c>
       <c r="K17">
-        <v>13.32205819896742</v>
+        <v>10.45696015860751</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.46689240750586</v>
+        <v>18.20119560910282</v>
       </c>
       <c r="N17">
-        <v>12.48210956925695</v>
+        <v>20.08815102112803</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.26242591174444</v>
+        <v>11.28224247797654</v>
       </c>
       <c r="C18">
-        <v>7.715610044748715</v>
+        <v>4.770958548766374</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.78649077194011</v>
+        <v>19.02671122487831</v>
       </c>
       <c r="F18">
-        <v>37.09505444588718</v>
+        <v>42.81236498200735</v>
       </c>
       <c r="G18">
-        <v>32.39341246352816</v>
+        <v>38.03639822449526</v>
       </c>
       <c r="H18">
-        <v>10.70438231387299</v>
+        <v>16.46709269291943</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.062819348759763</v>
+        <v>8.612283173528688</v>
       </c>
       <c r="K18">
-        <v>13.16043296872621</v>
+        <v>10.4165000420793</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.2975455956849</v>
+        <v>18.17162302906847</v>
       </c>
       <c r="N18">
-        <v>12.54152537030657</v>
+        <v>20.10363779119762</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.19455335359733</v>
+        <v>11.26156606259135</v>
       </c>
       <c r="C19">
-        <v>7.685667310987119</v>
+        <v>4.75630544479579</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.72793165206879</v>
+        <v>19.01737605724631</v>
       </c>
       <c r="F19">
-        <v>36.98942637057441</v>
+        <v>42.79960424747966</v>
       </c>
       <c r="G19">
-        <v>32.32961453841621</v>
+        <v>38.03306711303014</v>
       </c>
       <c r="H19">
-        <v>10.70286051822832</v>
+        <v>16.47002300351361</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.067778806945747</v>
+        <v>8.613704139359493</v>
       </c>
       <c r="K19">
-        <v>13.10532902368936</v>
+        <v>10.40280088540861</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.23997193533593</v>
+        <v>18.16165708768901</v>
       </c>
       <c r="N19">
-        <v>12.56168137438356</v>
+        <v>20.10891269885758</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.49804840273755</v>
+        <v>11.35447275603795</v>
       </c>
       <c r="C20">
-        <v>7.819662736861134</v>
+        <v>4.82184255933365</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.99058307625099</v>
+        <v>19.05959336456419</v>
       </c>
       <c r="F20">
-        <v>37.46486440342667</v>
+        <v>42.85769480379472</v>
       </c>
       <c r="G20">
-        <v>32.61880545062527</v>
+        <v>38.04880678995175</v>
       </c>
       <c r="H20">
-        <v>10.71036374935816</v>
+        <v>16.45702287390581</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.045502874368989</v>
+        <v>8.607345972795221</v>
       </c>
       <c r="K20">
-        <v>13.35179103288574</v>
+        <v>10.46444805787214</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.49812212234647</v>
+        <v>18.20669090246533</v>
       </c>
       <c r="N20">
-        <v>12.4711312586986</v>
+        <v>20.08529965207325</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.48413408630847</v>
+        <v>11.66387119210018</v>
       </c>
       <c r="C21">
-        <v>8.256812870737683</v>
+        <v>5.034910972657443</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.85747945637897</v>
+        <v>19.20498932569056</v>
       </c>
       <c r="F21">
-        <v>39.06326771634588</v>
+        <v>43.06441640187726</v>
       </c>
       <c r="G21">
-        <v>33.62726197625967</v>
+        <v>38.11479225691193</v>
       </c>
       <c r="H21">
-        <v>10.74743573734357</v>
+        <v>16.41661323167887</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.971353211751329</v>
+        <v>8.58661769637502</v>
       </c>
       <c r="K21">
-        <v>14.15361493581176</v>
+        <v>10.67137067331393</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.54622997992378</v>
+        <v>18.36115236050236</v>
       </c>
       <c r="N21">
-        <v>12.16945810601279</v>
+        <v>20.00813903416048</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.10393881402442</v>
+        <v>11.86366074098703</v>
       </c>
       <c r="C22">
-        <v>8.532890267423941</v>
+        <v>5.168779361020928</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.41211247142532</v>
+        <v>19.30255134443902</v>
       </c>
       <c r="F22">
-        <v>40.10788417838777</v>
+        <v>43.207989404251</v>
       </c>
       <c r="G22">
-        <v>34.31401249121285</v>
+        <v>38.16766392930032</v>
       </c>
       <c r="H22">
-        <v>10.78099786574623</v>
+        <v>16.39264387980185</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.923354393958927</v>
+        <v>8.573541360414655</v>
       </c>
       <c r="K22">
-        <v>14.65834924272476</v>
+        <v>10.80622463981607</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.20654377891536</v>
+        <v>18.46432890941061</v>
       </c>
       <c r="N22">
-        <v>11.97404071171736</v>
+        <v>19.95932593653932</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.77536763855462</v>
+        <v>11.75727350185375</v>
       </c>
       <c r="C23">
-        <v>8.386415580024458</v>
+        <v>5.09782813046255</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.11720307577194</v>
+        <v>19.25025565255299</v>
       </c>
       <c r="F23">
-        <v>39.55039787046243</v>
+        <v>43.13059605418729</v>
       </c>
       <c r="G23">
-        <v>33.94493410702435</v>
+        <v>38.1385550850589</v>
       </c>
       <c r="H23">
-        <v>10.76219904955441</v>
+        <v>16.40521318495849</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.948933650492511</v>
+        <v>8.58047749471357</v>
       </c>
       <c r="K23">
-        <v>14.39071142704852</v>
+        <v>10.73430002317303</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.8564364484073</v>
+        <v>18.409065907835</v>
       </c>
       <c r="N23">
-        <v>12.07819001652427</v>
+        <v>19.98523093803589</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.48150935030908</v>
+        <v>11.34938016381703</v>
       </c>
       <c r="C24">
-        <v>7.812353695211756</v>
+        <v>4.818270185368125</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.97621711505687</v>
+        <v>19.05726135615077</v>
       </c>
       <c r="F24">
-        <v>37.43874958797191</v>
+        <v>42.85446098233917</v>
       </c>
       <c r="G24">
-        <v>32.60278653713945</v>
+        <v>38.04789311610735</v>
       </c>
       <c r="H24">
-        <v>10.70990831852427</v>
+        <v>16.45772449181074</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.046723414052038</v>
+        <v>8.607692741687654</v>
       </c>
       <c r="K24">
-        <v>13.33835592038808</v>
+        <v>10.46106285853819</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.48400771935901</v>
+        <v>18.20420568430599</v>
       </c>
       <c r="N24">
-        <v>12.47609378016413</v>
+        <v>20.08658816633501</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.97748280305484</v>
+        <v>10.90144573888064</v>
       </c>
       <c r="C25">
-        <v>7.151200304194795</v>
+        <v>4.494109085135824</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.69667976657761</v>
+        <v>18.8606794575945</v>
       </c>
       <c r="F25">
-        <v>35.16644062630481</v>
+        <v>42.59381487306896</v>
       </c>
       <c r="G25">
-        <v>31.27234817420094</v>
+        <v>37.9920399051713</v>
       </c>
       <c r="H25">
-        <v>10.69041673005657</v>
+        <v>16.52481724718675</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.154539658836094</v>
+        <v>8.639082868592283</v>
       </c>
       <c r="K25">
-        <v>12.11870286715535</v>
+        <v>10.16620175520685</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.22426241884879</v>
+        <v>17.99358408716206</v>
       </c>
       <c r="N25">
-        <v>12.91384977216914</v>
+        <v>20.20289483011966</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.56763069546768</v>
+        <v>12.77403415182781</v>
       </c>
       <c r="C2">
-        <v>4.236652108051314</v>
+        <v>6.627871958273558</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.72659692017758</v>
+        <v>14.7164405080572</v>
       </c>
       <c r="F2">
-        <v>42.43465696815652</v>
+        <v>33.50587106077463</v>
       </c>
       <c r="G2">
-        <v>37.98695560698908</v>
+        <v>30.39141368010587</v>
       </c>
       <c r="H2">
-        <v>16.58317817649886</v>
+        <v>10.70442035584155</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.66396323277201</v>
+        <v>5.236302362798876</v>
       </c>
       <c r="K2">
-        <v>9.9506573560273</v>
+        <v>11.1463149051558</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.84820150238873</v>
+        <v>14.25524060396547</v>
       </c>
       <c r="N2">
-        <v>20.29459104553</v>
+        <v>13.24471709487715</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.34047401061864</v>
+        <v>11.89719617812651</v>
       </c>
       <c r="C3">
-        <v>4.050916498618962</v>
+        <v>6.250411327395292</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>18.64269901700582</v>
+        <v>14.03124072538688</v>
       </c>
       <c r="F3">
-        <v>42.34753485456569</v>
+        <v>32.39344747432747</v>
       </c>
       <c r="G3">
-        <v>38.00591867616666</v>
+        <v>29.85444398149076</v>
       </c>
       <c r="H3">
-        <v>16.62830501849678</v>
+        <v>10.72996034100287</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.681937061425256</v>
+        <v>5.293366438097891</v>
       </c>
       <c r="K3">
-        <v>9.806429210274601</v>
+        <v>10.44029205974221</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.75609966239461</v>
+        <v>13.57545445409201</v>
       </c>
       <c r="N3">
-        <v>20.36054486379675</v>
+        <v>13.47484844673515</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.20110140270072</v>
+        <v>11.32817760541817</v>
       </c>
       <c r="C4">
-        <v>3.931520962450746</v>
+        <v>6.007479638595248</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18.59472313278851</v>
+        <v>13.60151240051351</v>
       </c>
       <c r="F4">
-        <v>42.30435450494544</v>
+        <v>31.7188254412209</v>
       </c>
       <c r="G4">
-        <v>38.02857542752347</v>
+        <v>29.55368625705777</v>
       </c>
       <c r="H4">
-        <v>16.65875794916247</v>
+        <v>10.75303436406668</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.693524692733629</v>
+        <v>5.329270957262853</v>
       </c>
       <c r="K4">
-        <v>9.719081656557593</v>
+        <v>9.983455964613453</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.70283597219475</v>
+        <v>13.14793821706885</v>
       </c>
       <c r="N4">
-        <v>20.4029300596753</v>
+        <v>13.61923731897246</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.14441931257148</v>
+        <v>11.08853382992063</v>
       </c>
       <c r="C5">
-        <v>3.881555914051275</v>
+        <v>5.905696407600583</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.57607650915467</v>
+        <v>13.42436010985295</v>
       </c>
       <c r="F5">
-        <v>42.28936236007718</v>
+        <v>31.44635732267737</v>
       </c>
       <c r="G5">
-        <v>38.0405705759162</v>
+        <v>29.4382816980902</v>
       </c>
       <c r="H5">
-        <v>16.6718572093637</v>
+        <v>10.76422044136179</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.698385876187157</v>
+        <v>5.344127483195529</v>
       </c>
       <c r="K5">
-        <v>9.683836004845874</v>
+        <v>9.791413507125778</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.68197434148266</v>
+        <v>12.97140346090514</v>
       </c>
       <c r="N5">
-        <v>20.4206787619059</v>
+        <v>13.67887801601169</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.13501674047457</v>
+        <v>11.04827049378047</v>
       </c>
       <c r="C6">
-        <v>3.873181265564088</v>
+        <v>5.888627922680365</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>18.57303524322086</v>
+        <v>13.39482869197937</v>
       </c>
       <c r="F6">
-        <v>42.28703048232643</v>
+        <v>31.40127189537524</v>
       </c>
       <c r="G6">
-        <v>38.04272895920612</v>
+        <v>29.41954704735671</v>
       </c>
       <c r="H6">
-        <v>16.67407394909639</v>
+        <v>10.76618341296791</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.699201487387244</v>
+        <v>5.346608198491613</v>
       </c>
       <c r="K6">
-        <v>9.678005891646652</v>
+        <v>9.75916987537075</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.67856172272747</v>
+        <v>12.94195733284245</v>
       </c>
       <c r="N6">
-        <v>20.42365473192518</v>
+        <v>13.68883039744733</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.20033639196061</v>
+        <v>11.32497720117507</v>
       </c>
       <c r="C7">
-        <v>3.930852370778092</v>
+        <v>6.006118200598393</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>18.59446797982351</v>
+        <v>13.59913116821811</v>
       </c>
       <c r="F7">
-        <v>42.30414175886321</v>
+        <v>31.71514048866111</v>
       </c>
       <c r="G7">
-        <v>38.02872602438387</v>
+        <v>29.55210107313906</v>
       </c>
       <c r="H7">
-        <v>16.65893181990292</v>
+        <v>10.75317810156698</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.693589688469745</v>
+        <v>5.329470396766938</v>
       </c>
       <c r="K7">
-        <v>9.718604848225281</v>
+        <v>9.980889819481277</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.70255118683057</v>
+        <v>13.14556646750852</v>
       </c>
       <c r="N7">
-        <v>20.40316749426648</v>
+        <v>13.62003837869186</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.48933768862761</v>
+        <v>12.47802225144319</v>
       </c>
       <c r="C8">
-        <v>4.173741217521377</v>
+        <v>6.500051825587695</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.69694360770619</v>
+        <v>14.48218250009126</v>
       </c>
       <c r="F8">
-        <v>42.40248410139932</v>
+        <v>33.12075457483633</v>
       </c>
       <c r="G8">
-        <v>37.99120452398581</v>
+        <v>30.20019380766115</v>
       </c>
       <c r="H8">
-        <v>16.59816775576523</v>
+        <v>10.71164608414433</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.670046371168064</v>
+        <v>5.25580253604123</v>
       </c>
       <c r="K8">
-        <v>9.900703734398714</v>
+        <v>10.90771236004949</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.81577316972126</v>
+        <v>14.02307713557217</v>
       </c>
       <c r="N8">
-        <v>20.31694059623657</v>
+        <v>13.32344080453248</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.05315429000948</v>
+        <v>14.49885237720441</v>
       </c>
       <c r="C9">
-        <v>4.606271930056406</v>
+        <v>7.379566230574707</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.92528731468651</v>
+        <v>16.13392895505048</v>
       </c>
       <c r="F9">
-        <v>42.67657224246092</v>
+        <v>35.93053049661807</v>
       </c>
       <c r="G9">
-        <v>38.00525021920998</v>
+        <v>31.70501946929371</v>
       </c>
       <c r="H9">
-        <v>16.50082308014222</v>
+        <v>10.69235499879163</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.628235655116208</v>
+        <v>5.117875817620185</v>
       </c>
       <c r="K9">
-        <v>10.26539833155499</v>
+        <v>12.54099623445131</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.06307792330862</v>
+        <v>15.65535411918896</v>
       </c>
       <c r="N9">
-        <v>20.16277935181317</v>
+        <v>12.76514055902104</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.46084310514411</v>
+        <v>15.84108633463323</v>
       </c>
       <c r="C10">
-        <v>4.895953982972758</v>
+        <v>7.971435585906633</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.10876597895138</v>
+        <v>17.2898794057664</v>
       </c>
       <c r="F10">
-        <v>42.92652176250393</v>
+        <v>38.01176714159272</v>
       </c>
       <c r="G10">
-        <v>38.06920249075064</v>
+        <v>32.95775626486319</v>
       </c>
       <c r="H10">
-        <v>16.44264800289298</v>
+        <v>10.72103354825266</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.600146657399399</v>
+        <v>5.020015679018132</v>
       </c>
       <c r="K10">
-        <v>10.53531248430165</v>
+        <v>13.63055282662779</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.25903333562719</v>
+        <v>16.86166850308549</v>
       </c>
       <c r="N10">
-        <v>20.058531140353</v>
+        <v>12.36747790890106</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.64395625395883</v>
+        <v>16.42168273498611</v>
       </c>
       <c r="C11">
-        <v>5.021416862081947</v>
+        <v>8.229049596416168</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.19541767453644</v>
+        <v>17.80199564384045</v>
       </c>
       <c r="F11">
-        <v>43.05052462309826</v>
+        <v>38.95968111494561</v>
       </c>
       <c r="G11">
-        <v>38.10994795007716</v>
+        <v>33.56030776950673</v>
       </c>
       <c r="H11">
-        <v>16.41908955238706</v>
+        <v>10.74449986155406</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.587933379467168</v>
+        <v>4.976129882686875</v>
       </c>
       <c r="K11">
-        <v>10.65797991861503</v>
+        <v>14.10278871409759</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.35101107785629</v>
+        <v>17.47972416815765</v>
       </c>
       <c r="N11">
-        <v>20.01304463359658</v>
+        <v>12.18890098257524</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.71288721003236</v>
+        <v>16.63730485593165</v>
       </c>
       <c r="C12">
-        <v>5.068004074574109</v>
+        <v>8.324948858903666</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.22866787341689</v>
+        <v>17.99387811297702</v>
       </c>
       <c r="F12">
-        <v>43.09893702569592</v>
+        <v>39.31863742761585</v>
       </c>
       <c r="G12">
-        <v>38.12704997845528</v>
+        <v>33.79322342459945</v>
       </c>
       <c r="H12">
-        <v>16.41058714769049</v>
+        <v>10.75497943212185</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.583389276403008</v>
+        <v>4.959591527712137</v>
       </c>
       <c r="K12">
-        <v>10.70436930120746</v>
+        <v>14.27829768246536</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.38622510464071</v>
+        <v>17.70936583901962</v>
       </c>
       <c r="N12">
-        <v>19.99609718757726</v>
+        <v>12.12157957773362</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.6980610364465</v>
+        <v>16.59105397435768</v>
       </c>
       <c r="C13">
-        <v>5.05801193577221</v>
+        <v>8.304368418225193</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.22148775281246</v>
+        <v>17.95264458454238</v>
       </c>
       <c r="F13">
-        <v>43.08844626380517</v>
+        <v>39.24133179999407</v>
       </c>
       <c r="G13">
-        <v>38.12329243221357</v>
+        <v>33.74284922735439</v>
       </c>
       <c r="H13">
-        <v>16.41239965933564</v>
+        <v>10.75265006247752</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.584364342725008</v>
+        <v>4.963149965396794</v>
       </c>
       <c r="K13">
-        <v>10.69438198377289</v>
+        <v>14.24064533531546</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.37862443966689</v>
+        <v>17.66010279068817</v>
       </c>
       <c r="N13">
-        <v>19.99973480838237</v>
+        <v>12.13606554695212</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.64963586155476</v>
+        <v>16.43950656756562</v>
       </c>
       <c r="C14">
-        <v>5.025268190542792</v>
+        <v>8.236972297964941</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.19814455218641</v>
+        <v>17.81782322404003</v>
       </c>
       <c r="F14">
-        <v>43.0544785322828</v>
+        <v>38.9892134046998</v>
       </c>
       <c r="G14">
-        <v>38.11132144777891</v>
+        <v>33.57937457664426</v>
       </c>
       <c r="H14">
-        <v>16.41838165903031</v>
+        <v>10.74532953493889</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.587557916188175</v>
+        <v>4.974767717111661</v>
       </c>
       <c r="K14">
-        <v>10.66179789941613</v>
+        <v>14.11729410510346</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.35390059896283</v>
+        <v>17.49870465468784</v>
       </c>
       <c r="N14">
-        <v>20.01164480598619</v>
+        <v>12.1833565492949</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.61991857342112</v>
+        <v>16.34612991838661</v>
       </c>
       <c r="C15">
-        <v>5.005091125795247</v>
+        <v>8.195475542629998</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.18390244952947</v>
+        <v>17.73497329776996</v>
       </c>
       <c r="F15">
-        <v>43.0338610206001</v>
+        <v>38.83477977088506</v>
       </c>
       <c r="G15">
-        <v>38.10420656982114</v>
+        <v>33.47986057127619</v>
       </c>
       <c r="H15">
-        <v>16.4221003538129</v>
+        <v>10.74105586999389</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.589524583464515</v>
+        <v>4.981894050060991</v>
       </c>
       <c r="K15">
-        <v>10.64182980216154</v>
+        <v>14.04130758086015</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.33880582860698</v>
+        <v>17.39927290529575</v>
       </c>
       <c r="N15">
-        <v>20.01897610265863</v>
+        <v>12.21236198596749</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.44882269916593</v>
+        <v>15.80254585805066</v>
       </c>
       <c r="C16">
-        <v>4.887626289742912</v>
+        <v>7.954367351519187</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.10316541707311</v>
+        <v>17.25612850199395</v>
       </c>
       <c r="F16">
-        <v>42.91862298045049</v>
+        <v>37.94982686987897</v>
       </c>
       <c r="G16">
-        <v>38.06677395238177</v>
+        <v>32.91903934527849</v>
       </c>
       <c r="H16">
-        <v>16.44424614508758</v>
+        <v>10.71971771009088</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.600956151335604</v>
+        <v>5.022895538531289</v>
       </c>
       <c r="K16">
-        <v>10.52728961438551</v>
+        <v>13.59922416480422</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.2530774303635</v>
+        <v>16.82065627403214</v>
       </c>
       <c r="N16">
-        <v>20.06154265866496</v>
+        <v>12.37919233636609</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.34320678040427</v>
+        <v>15.4614455659253</v>
       </c>
       <c r="C17">
-        <v>4.813936605262485</v>
+        <v>7.80348804155378</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.05443718668941</v>
+        <v>16.95879759848492</v>
       </c>
       <c r="F17">
-        <v>42.85054848751835</v>
+        <v>37.4071008917248</v>
       </c>
       <c r="G17">
-        <v>38.04679335904861</v>
+        <v>32.58339377921326</v>
       </c>
       <c r="H17">
-        <v>16.45857669225168</v>
+        <v>10.70936306459916</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.608113370095786</v>
+        <v>5.048203047242379</v>
       </c>
       <c r="K17">
-        <v>10.45696015860751</v>
+        <v>13.32205819896748</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.20119560910282</v>
+        <v>16.46689240750586</v>
       </c>
       <c r="N17">
-        <v>20.08815102112803</v>
+        <v>12.48210956925685</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.28224247797654</v>
+        <v>15.26242591174446</v>
       </c>
       <c r="C18">
-        <v>4.770958548766374</v>
+        <v>7.715610044748742</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.02671122487831</v>
+        <v>16.78649077194012</v>
       </c>
       <c r="F18">
-        <v>42.81236498200735</v>
+        <v>37.09505444588719</v>
       </c>
       <c r="G18">
-        <v>38.03639822449526</v>
+        <v>32.39341246352821</v>
       </c>
       <c r="H18">
-        <v>16.46709269291943</v>
+        <v>10.70438231387294</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.612283173528688</v>
+        <v>5.062819348759831</v>
       </c>
       <c r="K18">
-        <v>10.4165000420793</v>
+        <v>13.16043296872624</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.17162302906847</v>
+        <v>16.2975455956849</v>
       </c>
       <c r="N18">
-        <v>20.10363779119762</v>
+        <v>12.54152537030663</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.26156606259135</v>
+        <v>15.19455335359733</v>
       </c>
       <c r="C19">
-        <v>4.75630544479579</v>
+        <v>7.685667310987276</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.01737605724631</v>
+        <v>16.72793165206878</v>
       </c>
       <c r="F19">
-        <v>42.79960424747966</v>
+        <v>36.98942637057452</v>
       </c>
       <c r="G19">
-        <v>38.03306711303014</v>
+        <v>32.32961453841633</v>
       </c>
       <c r="H19">
-        <v>16.47002300351361</v>
+        <v>10.70286051822834</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.613704139359493</v>
+        <v>5.067778806945816</v>
       </c>
       <c r="K19">
-        <v>10.40280088540861</v>
+        <v>13.10532902368937</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.16165708768901</v>
+        <v>16.23997193533593</v>
       </c>
       <c r="N19">
-        <v>20.10891269885758</v>
+        <v>12.56168137438361</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.35447275603795</v>
+        <v>15.49804840273752</v>
       </c>
       <c r="C20">
-        <v>4.82184255933365</v>
+        <v>7.81966273686112</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.05959336456419</v>
+        <v>16.99058307625096</v>
       </c>
       <c r="F20">
-        <v>42.85769480379472</v>
+        <v>37.46486440342672</v>
       </c>
       <c r="G20">
-        <v>38.04880678995175</v>
+        <v>32.61880545062542</v>
       </c>
       <c r="H20">
-        <v>16.45702287390581</v>
+        <v>10.71036374935826</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.607345972795221</v>
+        <v>5.045502874368993</v>
       </c>
       <c r="K20">
-        <v>10.46444805787214</v>
+        <v>13.35179103288569</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.20669090246533</v>
+        <v>16.49812212234648</v>
       </c>
       <c r="N20">
-        <v>20.08529965207325</v>
+        <v>12.47113125869867</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.66387119210018</v>
+        <v>16.48413408630849</v>
       </c>
       <c r="C21">
-        <v>5.034910972657443</v>
+        <v>8.256812870737766</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.20498932569056</v>
+        <v>17.85747945637898</v>
       </c>
       <c r="F21">
-        <v>43.06441640187726</v>
+        <v>39.06326771634585</v>
       </c>
       <c r="G21">
-        <v>38.11479225691193</v>
+        <v>33.62726197625962</v>
       </c>
       <c r="H21">
-        <v>16.41661323167887</v>
+        <v>10.74743573734348</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.58661769637502</v>
+        <v>4.971353211751358</v>
       </c>
       <c r="K21">
-        <v>10.67137067331393</v>
+        <v>14.15361493581178</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.36115236050236</v>
+        <v>17.54622997992374</v>
       </c>
       <c r="N21">
-        <v>20.00813903416048</v>
+        <v>12.16945810601266</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.86366074098703</v>
+        <v>17.10393881402431</v>
       </c>
       <c r="C22">
-        <v>5.168779361020928</v>
+        <v>8.532890267424181</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.30255134443902</v>
+        <v>18.41211247142528</v>
       </c>
       <c r="F22">
-        <v>43.207989404251</v>
+        <v>40.10788417838778</v>
       </c>
       <c r="G22">
-        <v>38.16766392930032</v>
+        <v>34.31401249121294</v>
       </c>
       <c r="H22">
-        <v>16.39264387980185</v>
+        <v>10.78099786574628</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.573541360414655</v>
+        <v>4.923354393958893</v>
       </c>
       <c r="K22">
-        <v>10.80622463981607</v>
+        <v>14.65834924272473</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.46432890941061</v>
+        <v>18.20654377891535</v>
       </c>
       <c r="N22">
-        <v>19.95932593653932</v>
+        <v>11.9740407117174</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.75727350185375</v>
+        <v>16.77536763855467</v>
       </c>
       <c r="C23">
-        <v>5.09782813046255</v>
+        <v>8.386415580024334</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.25025565255299</v>
+        <v>18.11720307577193</v>
       </c>
       <c r="F23">
-        <v>43.13059605418729</v>
+        <v>39.5503978704624</v>
       </c>
       <c r="G23">
-        <v>38.1385550850589</v>
+        <v>33.94493410702422</v>
       </c>
       <c r="H23">
-        <v>16.40521318495849</v>
+        <v>10.76219904955441</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.58047749471357</v>
+        <v>4.948933650492444</v>
       </c>
       <c r="K23">
-        <v>10.73430002317303</v>
+        <v>14.39071142704854</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.409065907835</v>
+        <v>17.85643644840731</v>
       </c>
       <c r="N23">
-        <v>19.98523093803589</v>
+        <v>12.07819001652417</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.34938016381703</v>
+        <v>15.48150935030907</v>
       </c>
       <c r="C24">
-        <v>4.818270185368125</v>
+        <v>7.812353695211777</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.05726135615077</v>
+        <v>16.97621711505688</v>
       </c>
       <c r="F24">
-        <v>42.85446098233917</v>
+        <v>37.43874958797196</v>
       </c>
       <c r="G24">
-        <v>38.04789311610735</v>
+        <v>32.60278653713945</v>
       </c>
       <c r="H24">
-        <v>16.45772449181074</v>
+        <v>10.70990831852418</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.607692741687654</v>
+        <v>5.046723414052007</v>
       </c>
       <c r="K24">
-        <v>10.46106285853819</v>
+        <v>13.33835592038808</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.20420568430599</v>
+        <v>16.48400771935901</v>
       </c>
       <c r="N24">
-        <v>20.08658816633501</v>
+        <v>12.47609378016412</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.90144573888064</v>
+        <v>13.9774828030548</v>
       </c>
       <c r="C25">
-        <v>4.494109085135824</v>
+        <v>7.151200304194933</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.8606794575945</v>
+        <v>15.69667976657763</v>
       </c>
       <c r="F25">
-        <v>42.59381487306896</v>
+        <v>35.1664406263049</v>
       </c>
       <c r="G25">
-        <v>37.9920399051713</v>
+        <v>31.27234817420109</v>
       </c>
       <c r="H25">
-        <v>16.52481724718675</v>
+        <v>10.69041673005662</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.639082868592283</v>
+        <v>5.154539658836158</v>
       </c>
       <c r="K25">
-        <v>10.16620175520685</v>
+        <v>12.11870286715535</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.99358408716206</v>
+        <v>15.22426241884879</v>
       </c>
       <c r="N25">
-        <v>20.20289483011966</v>
+        <v>12.91384977216927</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.77403415182781</v>
+        <v>21.39408358928174</v>
       </c>
       <c r="C2">
-        <v>6.627871958273558</v>
+        <v>14.70710741052516</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.7164405080572</v>
+        <v>8.855537737926884</v>
       </c>
       <c r="F2">
-        <v>33.50587106077463</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>30.39141368010587</v>
+        <v>15.2731893832373</v>
       </c>
       <c r="H2">
-        <v>10.70442035584155</v>
+        <v>2.071887634004367</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.661112178219391</v>
       </c>
       <c r="J2">
-        <v>5.236302362798876</v>
+        <v>7.590989266333689</v>
       </c>
       <c r="K2">
-        <v>11.1463149051558</v>
+        <v>12.39832426861308</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.25524060396547</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.24471709487715</v>
+        <v>6.688973637487268</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.63534854068166</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.42914886727904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.89719617812651</v>
+        <v>20.01340054377187</v>
       </c>
       <c r="C3">
-        <v>6.250411327395292</v>
+        <v>14.16273599385179</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.03124072538688</v>
+        <v>8.846031743031869</v>
       </c>
       <c r="F3">
-        <v>32.39344747432747</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>29.85444398149076</v>
+        <v>15.36589806084663</v>
       </c>
       <c r="H3">
-        <v>10.72996034100287</v>
+        <v>2.239565448306489</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.795369507881492</v>
       </c>
       <c r="J3">
-        <v>5.293366438097891</v>
+        <v>7.694474865804021</v>
       </c>
       <c r="K3">
-        <v>10.44029205974221</v>
+        <v>12.68277815595321</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.57545445409201</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.47484844673515</v>
+        <v>6.540021072756243</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.97253700557386</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.58560267648864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.32817760541817</v>
+        <v>19.11392412589549</v>
       </c>
       <c r="C4">
-        <v>6.007479638595248</v>
+        <v>13.82008545509311</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.60151240051351</v>
+        <v>8.839975142969742</v>
       </c>
       <c r="F4">
-        <v>31.7188254412209</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>29.55368625705777</v>
+        <v>15.44021831539465</v>
       </c>
       <c r="H4">
-        <v>10.75303436406668</v>
+        <v>2.346090331874509</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.881497082550845</v>
       </c>
       <c r="J4">
-        <v>5.329270957262853</v>
+        <v>7.761023497882406</v>
       </c>
       <c r="K4">
-        <v>9.983455964613453</v>
+        <v>12.86179974209161</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.14793821706885</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.61923731897246</v>
+        <v>6.447135093056996</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.54620105202931</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>11.68876249507206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.08853382992063</v>
+        <v>18.73408373809642</v>
       </c>
       <c r="C5">
-        <v>5.905696407600583</v>
+        <v>13.68705278364717</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.42436010985295</v>
+        <v>8.836700379362128</v>
       </c>
       <c r="F5">
-        <v>31.44635732267737</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>29.4382816980902</v>
+        <v>15.4620175966076</v>
       </c>
       <c r="H5">
-        <v>10.76422044136179</v>
+        <v>2.390649473043385</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.920388801965957</v>
       </c>
       <c r="J5">
-        <v>5.344127483195529</v>
+        <v>7.787074976393833</v>
       </c>
       <c r="K5">
-        <v>9.791413507125778</v>
+        <v>12.93333140424946</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.97140346090514</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.67887801601169</v>
+        <v>6.409422054185534</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.36827596537516</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>11.72778917845171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.04827049378047</v>
+        <v>18.66988706170912</v>
       </c>
       <c r="C6">
-        <v>5.888627922680365</v>
+        <v>13.67536413310616</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.39482869197937</v>
+        <v>8.83524595450487</v>
       </c>
       <c r="F6">
-        <v>31.40127189537524</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>29.41954704735671</v>
+        <v>15.45046844626219</v>
       </c>
       <c r="H6">
-        <v>10.76618341296791</v>
+        <v>2.398396119480443</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.930592292516575</v>
       </c>
       <c r="J6">
-        <v>5.346608198491613</v>
+        <v>7.789234984403616</v>
       </c>
       <c r="K6">
-        <v>9.75916987537075</v>
+        <v>12.94219671303127</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.94195733284245</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.68883039744733</v>
+        <v>6.403712032479046</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.33912402680877</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>11.72860049567605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.32497720117507</v>
+        <v>19.10795775356753</v>
       </c>
       <c r="C7">
-        <v>6.006118200598393</v>
+        <v>13.84675382620864</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.59913116821811</v>
+        <v>8.8375065906571</v>
       </c>
       <c r="F7">
-        <v>31.71514048866111</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>29.55210107313906</v>
+        <v>15.39835580742079</v>
       </c>
       <c r="H7">
-        <v>10.75317810156698</v>
+        <v>2.347465861363839</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.89176932372061</v>
       </c>
       <c r="J7">
-        <v>5.329470396766938</v>
+        <v>7.755339849020697</v>
       </c>
       <c r="K7">
-        <v>9.980889819481277</v>
+        <v>12.85438501719378</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.14556646750852</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.62003837869186</v>
+        <v>6.448184662839853</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.54561859937478</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>11.67350329574505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.47802225144319</v>
+        <v>20.92767414232394</v>
       </c>
       <c r="C8">
-        <v>6.500051825587695</v>
+        <v>14.55765789897495</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.48218250009126</v>
+        <v>8.849326607711591</v>
       </c>
       <c r="F8">
-        <v>33.12075457483633</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>30.20019380766115</v>
+        <v>15.2455855005694</v>
       </c>
       <c r="H8">
-        <v>10.71164608414433</v>
+        <v>2.129911288840448</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.719143273921847</v>
       </c>
       <c r="J8">
-        <v>5.25580253604123</v>
+        <v>7.618074458748997</v>
       </c>
       <c r="K8">
-        <v>10.90771236004949</v>
+        <v>12.48464092238995</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.02307713557217</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.32344080453248</v>
+        <v>6.639976188160805</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.41309295367122</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.46062921380978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.49885237720441</v>
+        <v>24.08805578522026</v>
       </c>
       <c r="C9">
-        <v>7.379566230574707</v>
+        <v>15.83140813713105</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.13392895505048</v>
+        <v>8.874930870771507</v>
       </c>
       <c r="F9">
-        <v>35.93053049661807</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>31.70501946929371</v>
+        <v>15.17093452052422</v>
       </c>
       <c r="H9">
-        <v>10.69235499879163</v>
+        <v>1.729838622435348</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.561179499901387</v>
       </c>
       <c r="J9">
-        <v>5.117875817620185</v>
+        <v>7.384264298106075</v>
       </c>
       <c r="K9">
-        <v>12.54099623445131</v>
+        <v>11.80803878432908</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.65535411918896</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.76514055902104</v>
+        <v>7.000649032169258</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.9532515815951</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.13141547264236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.84108633463323</v>
+        <v>26.17901413374351</v>
       </c>
       <c r="C10">
-        <v>7.971435585906633</v>
+        <v>16.82114352071245</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.2898794057664</v>
+        <v>8.879956819664235</v>
       </c>
       <c r="F10">
-        <v>38.01176714159272</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>32.95775626486319</v>
+        <v>14.99979800735881</v>
       </c>
       <c r="H10">
-        <v>10.72103354825266</v>
+        <v>1.662431765464891</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.778455792775935</v>
       </c>
       <c r="J10">
-        <v>5.020015679018132</v>
+        <v>7.19672406844263</v>
       </c>
       <c r="K10">
-        <v>13.63055282662779</v>
+        <v>11.29226430201296</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.86166850308549</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.36747790890106</v>
+        <v>7.15988308054549</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.91328460076195</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>10.84617834240494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.42168273498611</v>
+        <v>27.22376368494626</v>
       </c>
       <c r="C11">
-        <v>8.229049596416168</v>
+        <v>18.10248661247908</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.80199564384045</v>
+        <v>9.014706356715726</v>
       </c>
       <c r="F11">
-        <v>38.95968111494561</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>33.56030776950673</v>
+        <v>13.15085043175317</v>
       </c>
       <c r="H11">
-        <v>10.74449986155406</v>
+        <v>2.66094959421612</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.854845143420745</v>
       </c>
       <c r="J11">
-        <v>4.976129882686875</v>
+        <v>6.86250300963001</v>
       </c>
       <c r="K11">
-        <v>14.10278871409759</v>
+        <v>10.83104284039423</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.47972416815765</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.18890098257524</v>
+        <v>6.444892565450678</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.71610223508714</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10.04752242822112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.63730485593165</v>
+        <v>27.68540275532992</v>
       </c>
       <c r="C12">
-        <v>8.324948858903666</v>
+        <v>18.97195957915423</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.99387811297702</v>
+        <v>9.433854651308483</v>
       </c>
       <c r="F12">
-        <v>39.31863742761585</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>33.79322342459945</v>
+        <v>11.69981727187446</v>
       </c>
       <c r="H12">
-        <v>10.75497943212185</v>
+        <v>4.045722782864368</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.872833741302681</v>
       </c>
       <c r="J12">
-        <v>4.959591527712137</v>
+        <v>6.63883572587385</v>
       </c>
       <c r="K12">
-        <v>14.27829768246536</v>
+        <v>10.66396606917854</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.70936583901962</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.12157957773362</v>
+        <v>5.88611335834727</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.34130073663567</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9.479716687724608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.59105397435768</v>
+        <v>27.74092865320275</v>
       </c>
       <c r="C13">
-        <v>8.304368418225193</v>
+        <v>19.62864078377159</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.95264458454238</v>
+        <v>10.04773589721403</v>
       </c>
       <c r="F13">
-        <v>39.24133179999407</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>33.74284922735439</v>
+        <v>10.4234701855896</v>
       </c>
       <c r="H13">
-        <v>10.75265006247752</v>
+        <v>5.495715564377748</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.851833807530263</v>
       </c>
       <c r="J13">
-        <v>4.963149965396794</v>
+        <v>6.480143854208888</v>
       </c>
       <c r="K13">
-        <v>14.24064533531546</v>
+        <v>10.6986783696601</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.66010279068817</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.13606554695212</v>
+        <v>5.43683237519498</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.79861218757727</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>9.041595431078452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.43950656756562</v>
+        <v>27.59694522436723</v>
       </c>
       <c r="C14">
-        <v>8.236972297964941</v>
+        <v>20.00804533832184</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.81782322404003</v>
+        <v>10.57629600577155</v>
       </c>
       <c r="F14">
-        <v>38.9892134046998</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>33.57937457664426</v>
+        <v>9.63972397854263</v>
       </c>
       <c r="H14">
-        <v>10.74532953493889</v>
+        <v>6.515108960021328</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.820935782974262</v>
       </c>
       <c r="J14">
-        <v>4.974767717111661</v>
+        <v>6.401180076954398</v>
       </c>
       <c r="K14">
-        <v>14.11729410510346</v>
+        <v>10.82472856197046</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.49870465468784</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.1833565492949</v>
+        <v>5.203038916472927</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.33558298725732</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8.80424162897889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.34612991838661</v>
+        <v>27.47384465568024</v>
       </c>
       <c r="C15">
-        <v>8.195475542629998</v>
+        <v>20.06355274199616</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.73497329776996</v>
+        <v>10.70868232340261</v>
       </c>
       <c r="F15">
-        <v>38.83477977088506</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>33.47986057127619</v>
+        <v>9.481095174462828</v>
       </c>
       <c r="H15">
-        <v>10.74105586999389</v>
+        <v>6.751217330507401</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.806204329705158</v>
       </c>
       <c r="J15">
-        <v>4.981894050060991</v>
+        <v>6.393398397978721</v>
       </c>
       <c r="K15">
-        <v>14.04130758086015</v>
+        <v>10.88491030736787</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.39927290529575</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.21236198596749</v>
+        <v>5.158901711469988</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.1868051849388</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>8.768842079219503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.80254585805066</v>
+        <v>26.61801199468717</v>
       </c>
       <c r="C16">
-        <v>7.954367351519187</v>
+        <v>19.5685050328681</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.25612850199395</v>
+        <v>10.56556635631712</v>
       </c>
       <c r="F16">
-        <v>37.94982686987897</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>32.91903934527849</v>
+        <v>9.820787429498562</v>
       </c>
       <c r="H16">
-        <v>10.71971771009088</v>
+        <v>6.541590045933662</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.719156010307166</v>
       </c>
       <c r="J16">
-        <v>5.022895538531289</v>
+        <v>6.506072702291352</v>
       </c>
       <c r="K16">
-        <v>13.59922416480422</v>
+        <v>11.07872343729589</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.82065627403214</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.37919233636609</v>
+        <v>5.172563042847345</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.86417523393229</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8.985878831774007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.4614455659253</v>
+        <v>26.02602394690368</v>
       </c>
       <c r="C17">
-        <v>7.80348804155378</v>
+        <v>18.97175660412004</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.95879759848492</v>
+        <v>10.15503298559318</v>
       </c>
       <c r="F17">
-        <v>37.4071008917248</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>32.58339377921326</v>
+        <v>10.4657638253937</v>
       </c>
       <c r="H17">
-        <v>10.70936306459916</v>
+        <v>5.806376235338258</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.66910468018816</v>
       </c>
       <c r="J17">
-        <v>5.048203047242379</v>
+        <v>6.631913787366503</v>
       </c>
       <c r="K17">
-        <v>13.32205819896748</v>
+        <v>11.15772687537656</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.46689240750586</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.48210956925685</v>
+        <v>5.293108785692666</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.87073392764212</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9.268690046636172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.26242591174446</v>
+        <v>25.60789766774516</v>
       </c>
       <c r="C18">
-        <v>7.715610044748742</v>
+        <v>18.20988225171498</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.78649077194012</v>
+        <v>9.567710969170044</v>
       </c>
       <c r="F18">
-        <v>37.09505444588719</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>32.39341246352821</v>
+        <v>11.52072785428833</v>
       </c>
       <c r="H18">
-        <v>10.70438231387294</v>
+        <v>4.558670311895971</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.642849143354733</v>
       </c>
       <c r="J18">
-        <v>5.062819348759831</v>
+        <v>6.794229315021408</v>
       </c>
       <c r="K18">
-        <v>13.16043296872624</v>
+        <v>11.19447350391737</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.2975455956849</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.54152537030663</v>
+        <v>5.594022918261694</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.16205581775367</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.671190081355292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.19455335359733</v>
+        <v>25.36731879668721</v>
       </c>
       <c r="C19">
-        <v>7.685667310987276</v>
+        <v>17.44884033348241</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.72793165206878</v>
+        <v>9.073659360753956</v>
       </c>
       <c r="F19">
-        <v>36.98942637057452</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>32.32961453841633</v>
+        <v>12.8351344157523</v>
       </c>
       <c r="H19">
-        <v>10.70286051822834</v>
+        <v>3.083160083733222</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.65090582974746</v>
       </c>
       <c r="J19">
-        <v>5.067778806945816</v>
+        <v>6.977363439670865</v>
       </c>
       <c r="K19">
-        <v>13.10532902368937</v>
+        <v>11.26667059684826</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.23997193533593</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.56168137438361</v>
+        <v>6.110504030367271</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.65569901735002</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.15175737672718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.49804840273752</v>
+        <v>25.64546346143617</v>
       </c>
       <c r="C20">
-        <v>7.81966273686112</v>
+        <v>16.64817244082475</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.99058307625096</v>
+        <v>8.872368456473311</v>
       </c>
       <c r="F20">
-        <v>37.46486440342672</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>32.61880545062542</v>
+        <v>14.899017014802</v>
       </c>
       <c r="H20">
-        <v>10.71036374935826</v>
+        <v>1.589573724066518</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.734334925852675</v>
       </c>
       <c r="J20">
-        <v>5.045502874368993</v>
+        <v>7.224986926980822</v>
       </c>
       <c r="K20">
-        <v>13.35179103288569</v>
+        <v>11.40125177586808</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.49812212234648</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.47113125869867</v>
+        <v>7.118668202747607</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.66862403191369</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10.86537746082176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.48413408630849</v>
+        <v>27.14615249878508</v>
       </c>
       <c r="C21">
-        <v>8.256812870737766</v>
+        <v>17.23008524715227</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.85747945637898</v>
+        <v>8.896756977135791</v>
       </c>
       <c r="F21">
-        <v>39.06326771634585</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>33.62726197625962</v>
+        <v>15.14677541540042</v>
       </c>
       <c r="H21">
-        <v>10.74743573734348</v>
+        <v>1.797882511325115</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.900929218920743</v>
       </c>
       <c r="J21">
-        <v>4.971353211751358</v>
+        <v>7.135207339000315</v>
       </c>
       <c r="K21">
-        <v>14.15361493581178</v>
+        <v>11.06914419652909</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.54622997992374</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.16945810601266</v>
+        <v>7.387302437980497</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.48242638587754</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10.79126274822193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.10393881402431</v>
+        <v>28.09220981231235</v>
       </c>
       <c r="C22">
-        <v>8.532890267424181</v>
+        <v>17.61630452074551</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.41211247142528</v>
+        <v>8.908711180029576</v>
       </c>
       <c r="F22">
-        <v>40.10788417838778</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>34.31401249121294</v>
+        <v>15.28184781084795</v>
       </c>
       <c r="H22">
-        <v>10.78099786574628</v>
+        <v>1.92892688642449</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.001825999352993</v>
       </c>
       <c r="J22">
-        <v>4.923354393958893</v>
+        <v>7.073105161386718</v>
       </c>
       <c r="K22">
-        <v>14.65834924272473</v>
+        <v>10.84846518109355</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.20654377891535</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.9740407117174</v>
+        <v>7.508936189705348</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.95672815223409</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>10.73390522942399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.77536763855467</v>
+        <v>27.59205112447668</v>
       </c>
       <c r="C23">
-        <v>8.386415580024334</v>
+        <v>17.38249698146942</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.11720307577193</v>
+        <v>8.904405715070382</v>
       </c>
       <c r="F23">
-        <v>39.5503978704624</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>33.94493410702422</v>
+        <v>15.25581783552628</v>
       </c>
       <c r="H23">
-        <v>10.76219904955441</v>
+        <v>1.859834821029712</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.943436309685358</v>
       </c>
       <c r="J23">
-        <v>4.948933650492444</v>
+        <v>7.113060870283337</v>
       </c>
       <c r="K23">
-        <v>14.39071142704854</v>
+        <v>10.97518500404942</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.85643644840731</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.07819001652417</v>
+        <v>7.44248177284899</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.70383086964132</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>10.7824950889897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.48150935030907</v>
+        <v>25.60761383203459</v>
       </c>
       <c r="C24">
-        <v>7.812353695211777</v>
+        <v>16.5200902077971</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.97621711505688</v>
+        <v>8.885030814937425</v>
       </c>
       <c r="F24">
-        <v>37.43874958797196</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>32.60278653713945</v>
+        <v>15.13031984382022</v>
       </c>
       <c r="H24">
-        <v>10.70990831852418</v>
+        <v>1.591989409693375</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.726255857016407</v>
       </c>
       <c r="J24">
-        <v>5.046723414052007</v>
+        <v>7.260167905549088</v>
       </c>
       <c r="K24">
-        <v>13.33835592038808</v>
+        <v>11.44730162496469</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.48400771935901</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.47609378016412</v>
+        <v>7.189192128144334</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.70987236615429</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>10.95645337605476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.9774828030548</v>
+        <v>23.27544626585185</v>
       </c>
       <c r="C25">
-        <v>7.151200304194933</v>
+        <v>15.54260370124716</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.69667976657763</v>
+        <v>8.864457861786812</v>
       </c>
       <c r="F25">
-        <v>35.1664406263049</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>31.27234817420109</v>
+        <v>15.09773485521093</v>
       </c>
       <c r="H25">
-        <v>10.69041673005662</v>
+        <v>1.836316566457269</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.497142335406212</v>
       </c>
       <c r="J25">
-        <v>5.154539658836158</v>
+        <v>7.433904144054591</v>
       </c>
       <c r="K25">
-        <v>12.11870286715535</v>
+        <v>11.97313137837103</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.22426241884879</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.91384977216927</v>
+        <v>6.907367657431227</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.5567479136853</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.18480885375985</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.39408358928174</v>
+        <v>21.42888270404706</v>
       </c>
       <c r="C2">
-        <v>14.70710741052516</v>
+        <v>14.50788559622396</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.855537737926884</v>
+        <v>8.782408046502791</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>15.2731893832373</v>
+        <v>14.25785160291265</v>
       </c>
       <c r="H2">
-        <v>2.071887634004367</v>
+        <v>2.013536446745882</v>
       </c>
       <c r="I2">
-        <v>2.661112178219391</v>
+        <v>2.585609716780805</v>
       </c>
       <c r="J2">
-        <v>7.590989266333689</v>
+        <v>8.095553147836895</v>
       </c>
       <c r="K2">
-        <v>12.39832426861308</v>
+        <v>12.20074172190246</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.46243273574925</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.533675683790145</v>
       </c>
       <c r="N2">
-        <v>6.688973637487268</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.63534854068166</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.751563767640604</v>
       </c>
       <c r="Q2">
-        <v>11.42914886727904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.63690549026827</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.33432740967884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.01340054377187</v>
+        <v>20.0559814659829</v>
       </c>
       <c r="C3">
-        <v>14.16273599385179</v>
+        <v>13.89452699253518</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.846031743031869</v>
+        <v>8.779537375076792</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>15.36589806084663</v>
+        <v>14.3911632163616</v>
       </c>
       <c r="H3">
-        <v>2.239565448306489</v>
+        <v>2.169917705610493</v>
       </c>
       <c r="I3">
-        <v>2.795369507881492</v>
+        <v>2.705397886436747</v>
       </c>
       <c r="J3">
-        <v>7.694474865804021</v>
+        <v>8.166652449639203</v>
       </c>
       <c r="K3">
-        <v>12.68277815595321</v>
+        <v>12.47020730279293</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.6585536336127</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.797639594228782</v>
       </c>
       <c r="N3">
-        <v>6.540021072756243</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.97253700557386</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.609070096775469</v>
       </c>
       <c r="Q3">
-        <v>11.58560267648864</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.96941793417387</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.49351498288945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.11392412589549</v>
+        <v>19.16175247112946</v>
       </c>
       <c r="C4">
-        <v>13.82008545509311</v>
+        <v>13.50813106488484</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.839975142969742</v>
+        <v>8.77777302211117</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>15.44021831539465</v>
+        <v>14.4906456275154</v>
       </c>
       <c r="H4">
-        <v>2.346090331874509</v>
+        <v>2.269288210912534</v>
       </c>
       <c r="I4">
-        <v>2.881497082550845</v>
+        <v>2.782569543408438</v>
       </c>
       <c r="J4">
-        <v>7.761023497882406</v>
+        <v>8.211826973296855</v>
       </c>
       <c r="K4">
-        <v>12.86179974209161</v>
+        <v>12.63954158599936</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.78788351963503</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.972833108531514</v>
       </c>
       <c r="N4">
-        <v>6.447135093056996</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.54620105202931</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.520549443612454</v>
       </c>
       <c r="Q4">
-        <v>11.68876249507206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.53980805045949</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.59695288163846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.73408373809642</v>
+        <v>18.78418261767438</v>
       </c>
       <c r="C5">
-        <v>13.68705278364717</v>
+        <v>13.35691830696992</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.836700379362128</v>
+        <v>8.776319517140967</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>15.4620175966076</v>
+        <v>14.52245368778882</v>
       </c>
       <c r="H5">
-        <v>2.390649473043385</v>
+        <v>2.310874243551265</v>
       </c>
       <c r="I5">
-        <v>2.920388801965957</v>
+        <v>2.818307084735701</v>
       </c>
       <c r="J5">
-        <v>7.787074976393833</v>
+        <v>8.228845836803293</v>
       </c>
       <c r="K5">
-        <v>12.93333140424946</v>
+        <v>12.70700804199683</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.8393672362793</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.047295647727804</v>
       </c>
       <c r="N5">
-        <v>6.409422054185534</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.36827596537516</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.484688289832683</v>
       </c>
       <c r="Q5">
-        <v>11.72778917845171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.3604306212676</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.63583797685961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.66988706170912</v>
+        <v>18.72037147196445</v>
       </c>
       <c r="C6">
-        <v>13.67536413310616</v>
+        <v>13.34212555958562</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.83524595450487</v>
+        <v>8.775191936285239</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>15.45046844626219</v>
+        <v>14.5122654082182</v>
       </c>
       <c r="H6">
-        <v>2.398396119480443</v>
+        <v>2.318122042627618</v>
       </c>
       <c r="I6">
-        <v>2.930592292516575</v>
+        <v>2.828664096619852</v>
       </c>
       <c r="J6">
-        <v>7.789234984403616</v>
+        <v>8.229534768743067</v>
       </c>
       <c r="K6">
-        <v>12.94219671303127</v>
+        <v>12.71519732111542</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.84388852081949</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.059672841040838</v>
       </c>
       <c r="N6">
-        <v>6.403712032479046</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.33912402680877</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.479257609058478</v>
       </c>
       <c r="Q6">
-        <v>11.72860049567605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.33101124754346</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.63670657091455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.10795775356753</v>
+        <v>19.15565665820322</v>
       </c>
       <c r="C7">
-        <v>13.84675382620864</v>
+        <v>13.52908463742584</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.8375065906571</v>
+        <v>8.774683682915333</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>15.39835580742079</v>
+        <v>14.51326976543842</v>
       </c>
       <c r="H7">
-        <v>2.347465861363839</v>
+        <v>2.271077141997582</v>
       </c>
       <c r="I7">
-        <v>2.89176932372061</v>
+        <v>2.795058438898645</v>
       </c>
       <c r="J7">
-        <v>7.755339849020697</v>
+        <v>8.181217129520329</v>
       </c>
       <c r="K7">
-        <v>12.85438501719378</v>
+        <v>12.62933022905839</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.77387380108576</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.972718079404522</v>
       </c>
       <c r="N7">
-        <v>6.448184662839853</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.54561859937478</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.521051131515558</v>
       </c>
       <c r="Q7">
-        <v>11.67350329574505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.5389891132156</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.57337996259039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.92767414232394</v>
+        <v>20.96460292850723</v>
       </c>
       <c r="C8">
-        <v>14.55765789897495</v>
+        <v>14.3180671769941</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.849326607711591</v>
+        <v>8.776397404376951</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>15.2455855005694</v>
+        <v>14.46309193489342</v>
       </c>
       <c r="H8">
-        <v>2.129911288840448</v>
+        <v>2.069106989129822</v>
       </c>
       <c r="I8">
-        <v>2.719143273921847</v>
+        <v>2.642409714136352</v>
       </c>
       <c r="J8">
-        <v>7.618074458748997</v>
+        <v>8.031557611193774</v>
       </c>
       <c r="K8">
-        <v>12.48464092238995</v>
+        <v>12.27361895861586</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.50598445888904</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.61599426130106</v>
       </c>
       <c r="N8">
-        <v>6.639976188160805</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.41309295367122</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.703091022548819</v>
       </c>
       <c r="Q8">
-        <v>11.46062921380978</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.41250342630146</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.33904791364567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.08805578522026</v>
+        <v>24.107631565597</v>
       </c>
       <c r="C9">
-        <v>15.83140813713105</v>
+        <v>15.75181306805475</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.874930870771507</v>
+        <v>8.786258820008438</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>15.17093452052422</v>
+        <v>14.35427724530511</v>
       </c>
       <c r="H9">
-        <v>1.729838622435348</v>
+        <v>1.69628127551776</v>
       </c>
       <c r="I9">
-        <v>2.561179499901387</v>
+        <v>2.610598146801102</v>
       </c>
       <c r="J9">
-        <v>7.384264298106075</v>
+        <v>7.846867154350848</v>
       </c>
       <c r="K9">
-        <v>11.80803878432908</v>
+        <v>11.62999414922342</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.08228189924933</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.029914507107235</v>
       </c>
       <c r="N9">
-        <v>7.000649032169258</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.9532515815951</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.049676981442488</v>
       </c>
       <c r="Q9">
-        <v>11.13141547264236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.96202899389159</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>10.98599576110718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.17901413374351</v>
+        <v>26.18692909350796</v>
       </c>
       <c r="C10">
-        <v>16.82114352071245</v>
+        <v>16.81219713825116</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.879956819664235</v>
+        <v>8.780770657284236</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>14.99979800735881</v>
+        <v>14.56990176405537</v>
       </c>
       <c r="H10">
-        <v>1.662431765464891</v>
+        <v>1.674760110418282</v>
       </c>
       <c r="I10">
-        <v>2.778455792775935</v>
+        <v>2.80430889402768</v>
       </c>
       <c r="J10">
-        <v>7.19672406844263</v>
+        <v>7.565022752604008</v>
       </c>
       <c r="K10">
-        <v>11.29226430201296</v>
+        <v>11.13193214284216</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.792073559908889</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.629100251149109</v>
       </c>
       <c r="N10">
-        <v>7.15988308054549</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.91328460076195</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.197359665158349</v>
       </c>
       <c r="Q10">
-        <v>10.84617834240494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.92529917157369</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>10.63539014867679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.22376368494626</v>
+        <v>27.22832079421761</v>
       </c>
       <c r="C11">
-        <v>18.10248661247908</v>
+        <v>17.97180764866808</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.014706356715726</v>
+        <v>8.919436766178993</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>13.15085043175317</v>
+        <v>13.68108579059041</v>
       </c>
       <c r="H11">
-        <v>2.66094959421612</v>
+        <v>2.662391444700169</v>
       </c>
       <c r="I11">
-        <v>2.854845143420745</v>
+        <v>2.871605703043398</v>
       </c>
       <c r="J11">
-        <v>6.86250300963001</v>
+        <v>7.133528612784143</v>
       </c>
       <c r="K11">
-        <v>10.83104284039423</v>
+        <v>10.74178534695389</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.606123316750558</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.244960865906692</v>
       </c>
       <c r="N11">
-        <v>6.444892565450678</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.71610223508714</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.467765213070789</v>
       </c>
       <c r="Q11">
-        <v>10.04752242822112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.7212020773482</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>9.824020944526394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.68540275532992</v>
+        <v>27.68967058654822</v>
       </c>
       <c r="C12">
-        <v>18.97195957915423</v>
+        <v>18.73101200405387</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.433854651308483</v>
+        <v>9.329059165495488</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>11.69981727187446</v>
+        <v>12.67463047952145</v>
       </c>
       <c r="H12">
-        <v>4.045722782864368</v>
+        <v>4.04620088265088</v>
       </c>
       <c r="I12">
-        <v>2.872833741302681</v>
+        <v>2.885633538409611</v>
       </c>
       <c r="J12">
-        <v>6.63883572587385</v>
+        <v>6.972772874641947</v>
       </c>
       <c r="K12">
-        <v>10.66396606917854</v>
+        <v>10.62984784809179</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.594360697177523</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.087759516114534</v>
       </c>
       <c r="N12">
-        <v>5.88611335834727</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.34130073663567</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.901892154210161</v>
       </c>
       <c r="Q12">
-        <v>9.479716687724608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.3407217670564</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.295516874534188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.74092865320275</v>
+        <v>27.74739840162303</v>
       </c>
       <c r="C13">
-        <v>19.62864078377159</v>
+        <v>19.29110826145361</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.04773589721403</v>
+        <v>9.928820388547541</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>10.4234701855896</v>
+        <v>11.27428695970559</v>
       </c>
       <c r="H13">
-        <v>5.495715564377748</v>
+        <v>5.495559045857421</v>
       </c>
       <c r="I13">
-        <v>2.851833807530263</v>
+        <v>2.8666667160137</v>
       </c>
       <c r="J13">
-        <v>6.480143854208888</v>
+        <v>6.934225231216205</v>
       </c>
       <c r="K13">
-        <v>10.6986783696601</v>
+        <v>10.68797439935511</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.659265253607549</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.099363014770328</v>
       </c>
       <c r="N13">
-        <v>5.43683237519498</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.79861218757727</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.45256139453886</v>
       </c>
       <c r="Q13">
-        <v>9.041595431078452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.79307717478615</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>8.944392116459184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.59694522436723</v>
+        <v>27.60606205591718</v>
       </c>
       <c r="C14">
-        <v>20.00804533832184</v>
+        <v>19.60766127802143</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.57629600577155</v>
+        <v>10.4457417781615</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>9.63972397854263</v>
+        <v>10.14710557138047</v>
       </c>
       <c r="H14">
-        <v>6.515108960021328</v>
+        <v>6.514068856951758</v>
       </c>
       <c r="I14">
-        <v>2.820935782974262</v>
+        <v>2.840186537435953</v>
       </c>
       <c r="J14">
-        <v>6.401180076954398</v>
+        <v>6.937014388961103</v>
       </c>
       <c r="K14">
-        <v>10.82472856197046</v>
+        <v>10.80291492385665</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.729277249786149</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.194435508987541</v>
       </c>
       <c r="N14">
-        <v>5.203038916472927</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.33558298725732</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.222525263299657</v>
       </c>
       <c r="Q14">
-        <v>8.80424162897889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.32672135989194</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>8.777084216127328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.47384465568024</v>
+        <v>27.48416387751265</v>
       </c>
       <c r="C15">
-        <v>20.06355274199616</v>
+        <v>19.65065449001528</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.70868232340261</v>
+        <v>10.57637411384372</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>9.481095174462828</v>
+        <v>9.810277217985117</v>
       </c>
       <c r="H15">
-        <v>6.751217330507401</v>
+        <v>6.749699010264557</v>
       </c>
       <c r="I15">
-        <v>2.806204329705158</v>
+        <v>2.828371912815883</v>
       </c>
       <c r="J15">
-        <v>6.393398397978721</v>
+        <v>6.949842951240886</v>
       </c>
       <c r="K15">
-        <v>10.88491030736787</v>
+        <v>10.8521241388504</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.748981749213936</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.2453573167787</v>
       </c>
       <c r="N15">
-        <v>5.158901711469988</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.1868051849388</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.180493136306679</v>
       </c>
       <c r="Q15">
-        <v>8.768842079219503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.17717176715628</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>8.763203699287248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.61801199468717</v>
+        <v>26.63364383517326</v>
       </c>
       <c r="C16">
-        <v>19.5685050328681</v>
+        <v>19.18432252389881</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.56556635631712</v>
+        <v>10.4484724064671</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>9.820787429498562</v>
+        <v>9.465421189488671</v>
       </c>
       <c r="H16">
-        <v>6.541590045933662</v>
+        <v>6.536912516181141</v>
       </c>
       <c r="I16">
-        <v>2.719156010307166</v>
+        <v>2.75462321819958</v>
       </c>
       <c r="J16">
-        <v>6.506072702291352</v>
+        <v>7.106300938360866</v>
       </c>
       <c r="K16">
-        <v>11.07872343729589</v>
+        <v>10.99919644699248</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.747637064066602</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.446995119557934</v>
       </c>
       <c r="N16">
-        <v>5.172563042847345</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.86417523393229</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.203175863353131</v>
       </c>
       <c r="Q16">
-        <v>8.985878831774007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.85499050916647</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.026970234783645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.02602394690368</v>
+        <v>26.04421778379326</v>
       </c>
       <c r="C17">
-        <v>18.97175660412004</v>
+        <v>18.63713357878568</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.15503298559318</v>
+        <v>10.05436386014962</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>10.4657638253937</v>
+        <v>9.852412304643421</v>
       </c>
       <c r="H17">
-        <v>5.806376235338258</v>
+        <v>5.798956281865403</v>
       </c>
       <c r="I17">
-        <v>2.66910468018816</v>
+        <v>2.712079427101866</v>
       </c>
       <c r="J17">
-        <v>6.631913787366503</v>
+        <v>7.252041498801918</v>
       </c>
       <c r="K17">
-        <v>11.15772687537656</v>
+        <v>11.06536958932237</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.735229478538576</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.545765015145961</v>
       </c>
       <c r="N17">
-        <v>5.293108785692666</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.87073392764212</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.328050874598362</v>
       </c>
       <c r="Q17">
-        <v>9.268690046636172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.86356907894072</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>9.312728438037869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.60789766774516</v>
+        <v>25.62659145119609</v>
       </c>
       <c r="C18">
-        <v>18.20988225171498</v>
+        <v>17.9561838536845</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.567710969170044</v>
+        <v>9.484548632326669</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>11.52072785428833</v>
+        <v>10.7825425160534</v>
       </c>
       <c r="H18">
-        <v>4.558670311895971</v>
+        <v>4.54794077686795</v>
       </c>
       <c r="I18">
-        <v>2.642849143354733</v>
+        <v>2.688219219743184</v>
       </c>
       <c r="J18">
-        <v>6.794229315021408</v>
+        <v>7.409512017822986</v>
       </c>
       <c r="K18">
-        <v>11.19447350391737</v>
+        <v>11.10232777535567</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.73494622806783</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.592106074258024</v>
       </c>
       <c r="N18">
-        <v>5.594022918261694</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.16205581775367</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.631286872594992</v>
       </c>
       <c r="Q18">
-        <v>9.671190081355292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.15906013571473</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>9.689940603450104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.36731879668721</v>
+        <v>25.38474896764455</v>
       </c>
       <c r="C19">
-        <v>17.44884033348241</v>
+        <v>17.29302807282124</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.073659360753956</v>
+        <v>8.999023897474888</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>12.8351344157523</v>
+        <v>12.00470227984032</v>
       </c>
       <c r="H19">
-        <v>3.083160083733222</v>
+        <v>3.067665436548215</v>
       </c>
       <c r="I19">
-        <v>2.65090582974746</v>
+        <v>2.696758435627069</v>
       </c>
       <c r="J19">
-        <v>6.977363439670865</v>
+        <v>7.568514914207332</v>
       </c>
       <c r="K19">
-        <v>11.26667059684826</v>
+        <v>11.16499316597407</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.775619601981214</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.644111644798238</v>
       </c>
       <c r="N19">
-        <v>6.110504030367271</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.65569901735002</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.149981782215971</v>
       </c>
       <c r="Q19">
-        <v>10.15175737672718</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.65833300239528</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.12055583917943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.64546346143617</v>
+        <v>25.656806520125</v>
       </c>
       <c r="C20">
-        <v>16.64817244082475</v>
+        <v>16.6359826704946</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.872368456473311</v>
+        <v>8.778543757877314</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>14.899017014802</v>
+        <v>14.12497751434958</v>
       </c>
       <c r="H20">
-        <v>1.589573724066518</v>
+        <v>1.608428194388923</v>
       </c>
       <c r="I20">
-        <v>2.734334925852675</v>
+        <v>2.771074392502404</v>
       </c>
       <c r="J20">
-        <v>7.224986926980822</v>
+        <v>7.700267895011425</v>
       </c>
       <c r="K20">
-        <v>11.40125177586808</v>
+        <v>11.24789995130572</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.854258452059161</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.718671678880083</v>
       </c>
       <c r="N20">
-        <v>7.118668202747607</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.66862403191369</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.160260702183442</v>
       </c>
       <c r="Q20">
-        <v>10.86537746082176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.68031895496812</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10.70662027210256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.14615249878508</v>
+        <v>27.14652795216972</v>
       </c>
       <c r="C21">
-        <v>17.23008524715227</v>
+        <v>17.20650966788087</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.896756977135791</v>
+        <v>8.78128587218883</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>15.14677541540042</v>
+        <v>15.94917375706991</v>
       </c>
       <c r="H21">
-        <v>1.797882511325115</v>
+        <v>1.795167114206189</v>
       </c>
       <c r="I21">
-        <v>2.900929218920743</v>
+        <v>2.912847159839162</v>
       </c>
       <c r="J21">
-        <v>7.135207339000315</v>
+        <v>7.189556941775487</v>
       </c>
       <c r="K21">
-        <v>11.06914419652909</v>
+        <v>10.87607964977562</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.661423158298133</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.426705501211806</v>
       </c>
       <c r="N21">
-        <v>7.387302437980497</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.48242638587754</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.414568012730058</v>
       </c>
       <c r="Q21">
-        <v>10.79126274822193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.49406667050567</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10.39734759675641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.09220981231235</v>
+        <v>28.08585077671028</v>
       </c>
       <c r="C22">
-        <v>17.61630452074551</v>
+        <v>17.57491417966292</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.908711180029576</v>
+        <v>8.781500947167972</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>15.28184781084795</v>
+        <v>17.25250770755924</v>
       </c>
       <c r="H22">
-        <v>1.92892688642449</v>
+        <v>1.91255403160406</v>
       </c>
       <c r="I22">
-        <v>3.001825999352993</v>
+        <v>2.996745069139784</v>
       </c>
       <c r="J22">
-        <v>7.073105161386718</v>
+        <v>6.945269327606921</v>
       </c>
       <c r="K22">
-        <v>10.84846518109355</v>
+        <v>10.62945307423809</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.548575459616147</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.234796537680824</v>
       </c>
       <c r="N22">
-        <v>7.508936189705348</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.95672815223409</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.526673754840465</v>
       </c>
       <c r="Q22">
-        <v>10.73390522942399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.96735570316742</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.17164971806521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.59205112447668</v>
+        <v>27.58945463186057</v>
       </c>
       <c r="C23">
-        <v>17.38249698146942</v>
+        <v>17.36183755033234</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.904405715070382</v>
+        <v>8.784187837267863</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>15.25581783552628</v>
+        <v>16.41712847244793</v>
       </c>
       <c r="H23">
-        <v>1.859834821029712</v>
+        <v>1.851418213633075</v>
       </c>
       <c r="I23">
-        <v>2.943436309685358</v>
+        <v>2.946707154294453</v>
       </c>
       <c r="J23">
-        <v>7.113060870283337</v>
+        <v>7.094904405573478</v>
       </c>
       <c r="K23">
-        <v>10.97518500404942</v>
+        <v>10.77254838254731</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.612077366556388</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.351541019980825</v>
       </c>
       <c r="N23">
-        <v>7.44248177284899</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.70383086964132</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.466293940770498</v>
       </c>
       <c r="Q23">
-        <v>10.7824950889897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.7155318055917</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10.33190240995796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.60761383203459</v>
+        <v>25.61884164049077</v>
       </c>
       <c r="C24">
-        <v>16.5200902077971</v>
+        <v>16.51690721610485</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.885030814937425</v>
+        <v>8.788698063586473</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>15.13031984382022</v>
+        <v>14.3321197403952</v>
       </c>
       <c r="H24">
-        <v>1.591989409693375</v>
+        <v>1.611007229601155</v>
       </c>
       <c r="I24">
-        <v>2.726255857016407</v>
+        <v>2.760827424526163</v>
       </c>
       <c r="J24">
-        <v>7.260167905549088</v>
+        <v>7.732916382644713</v>
       </c>
       <c r="K24">
-        <v>11.44730162496469</v>
+        <v>11.28598195502333</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.87888039689784</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.753270903925719</v>
       </c>
       <c r="N24">
-        <v>7.189192128144334</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.70987236615429</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.231618654193256</v>
       </c>
       <c r="Q24">
-        <v>10.95645337605476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.72222827032585</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10.78997378652737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.27544626585185</v>
+        <v>23.29963158165342</v>
       </c>
       <c r="C25">
-        <v>15.54260370124716</v>
+        <v>15.42776587517015</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.864457861786812</v>
+        <v>8.781013308170191</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>15.09773485521093</v>
+        <v>14.19359992072877</v>
       </c>
       <c r="H25">
-        <v>1.836316566457269</v>
+        <v>1.794993746186749</v>
       </c>
       <c r="I25">
-        <v>2.497142335406212</v>
+        <v>2.54618311965692</v>
       </c>
       <c r="J25">
-        <v>7.433904144054591</v>
+        <v>7.919671996949313</v>
       </c>
       <c r="K25">
-        <v>11.97313137837103</v>
+        <v>11.79161857064778</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.18074872120544</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.170105983734289</v>
       </c>
       <c r="N25">
-        <v>6.907367657431227</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.5567479136853</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.960351014398521</v>
       </c>
       <c r="Q25">
-        <v>11.18480885375985</v>
+        <v>13.56347761191928</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.06092895346866</v>
       </c>
     </row>
   </sheetData>
